--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5509,7 +5509,9 @@
       <c r="C116" t="n">
         <v>-0.93</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.57</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -5520,7 +5522,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>-0.65</v>
+        <v>-0.62</v>
       </c>
     </row>
   </sheetData>
@@ -10555,7 +10557,9 @@
       <c r="C116" t="n">
         <v>-0.96</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.65</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -10566,7 +10570,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>-0.8</v>
+        <v>-0.75</v>
       </c>
     </row>
   </sheetData>
@@ -15681,7 +15685,9 @@
       <c r="C116" t="n">
         <v>0.25</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.02</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -15692,7 +15698,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -20807,7 +20813,9 @@
       <c r="C116" t="n">
         <v>0.67</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.64</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -20818,7 +20826,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -25839,7 +25847,9 @@
       <c r="C116" t="n">
         <v>2.65</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.42</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -25850,7 +25860,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>3.53</v>
+        <v>2.49</v>
       </c>
     </row>
   </sheetData>
@@ -30965,7 +30975,9 @@
       <c r="C116" t="n">
         <v>1.72</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.09</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -30976,7 +30988,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.03</v>
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -36091,7 +36103,9 @@
       <c r="C116" t="n">
         <v>2.72</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>1.34</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -36102,7 +36116,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -41217,7 +41231,9 @@
       <c r="C116" t="n">
         <v>0.8756190476190474</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.1551428571428574</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -41228,7 +41244,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.91</v>
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -46343,7 +46359,9 @@
       <c r="C116" t="n">
         <v>0.88</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.16</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -46354,7 +46372,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.91</v>
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5512,7 +5512,9 @@
       <c r="D116" t="n">
         <v>-0.57</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.93</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -5522,7 +5524,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>-0.62</v>
+        <v>-0.24</v>
       </c>
     </row>
   </sheetData>
@@ -10560,7 +10562,9 @@
       <c r="D116" t="n">
         <v>-0.65</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.47</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -10570,7 +10574,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>-0.75</v>
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>
@@ -15688,7 +15692,9 @@
       <c r="D116" t="n">
         <v>-0.02</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.71</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -15698,7 +15704,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -20816,7 +20822,9 @@
       <c r="D116" t="n">
         <v>0.64</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.73</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -25850,7 +25858,9 @@
       <c r="D116" t="n">
         <v>0.42</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.29</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -25860,7 +25870,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>2.49</v>
+        <v>2.19</v>
       </c>
     </row>
   </sheetData>
@@ -30978,7 +30988,9 @@
       <c r="D116" t="n">
         <v>-0.09</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.16</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -30988,7 +31000,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.66</v>
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -36106,7 +36118,9 @@
       <c r="D116" t="n">
         <v>1.34</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.92</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -36116,7 +36130,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>
@@ -41234,7 +41248,9 @@
       <c r="D116" t="n">
         <v>0.1551428571428574</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.7451428571428548</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -41244,7 +41260,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>
@@ -46362,7 +46378,9 @@
       <c r="D116" t="n">
         <v>0.16</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.75</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -46372,7 +46390,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5515,8 +5515,12 @@
       <c r="E116" t="n">
         <v>0.93</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.64</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5524,7 +5528,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>-0.24</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -10565,8 +10569,12 @@
       <c r="E116" t="n">
         <v>0.47</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.68</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -10574,7 +10582,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>-0.44</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -15695,8 +15703,12 @@
       <c r="E116" t="n">
         <v>0.71</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.43</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -15704,7 +15716,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.42</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -20825,8 +20837,12 @@
       <c r="E116" t="n">
         <v>0.73</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.78</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -20834,7 +20850,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>
@@ -25861,8 +25877,12 @@
       <c r="E116" t="n">
         <v>1.29</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.97</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -25870,7 +25890,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>2.19</v>
+        <v>2.01</v>
       </c>
     </row>
   </sheetData>
@@ -30991,8 +31011,12 @@
       <c r="E116" t="n">
         <v>0.16</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.92</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -31000,7 +31024,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.53</v>
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -36121,8 +36145,12 @@
       <c r="E116" t="n">
         <v>0.92</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.35</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -36130,7 +36158,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>
@@ -41251,8 +41279,12 @@
       <c r="E116" t="n">
         <v>0.7451428571428548</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.537047619047619</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.397619047619048</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -41260,7 +41292,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.68</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -46381,8 +46413,12 @@
       <c r="E116" t="n">
         <v>0.75</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.4</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -46390,7 +46426,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.68</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5521,14 +5521,16 @@
       <c r="G116" t="n">
         <v>0.64</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>0.55</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -10575,14 +10577,16 @@
       <c r="G116" t="n">
         <v>1.68</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.59</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.3</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -15709,14 +15713,16 @@
       <c r="G116" t="n">
         <v>1.43</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -20843,14 +20849,16 @@
       <c r="G116" t="n">
         <v>1.78</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.25</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
     </row>
   </sheetData>
@@ -25881,16 +25889,18 @@
         <v>1.31</v>
       </c>
       <c r="G116" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>1.87</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.78</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
     </row>
   </sheetData>
@@ -31017,14 +31027,16 @@
       <c r="G116" t="n">
         <v>0.92</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.09</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -36151,14 +36163,16 @@
       <c r="G116" t="n">
         <v>1.35</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.24</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>
@@ -41283,16 +41297,18 @@
         <v>1.537047619047619</v>
       </c>
       <c r="G116" t="n">
-        <v>1.397619047619048</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>1.383333333333334</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.072952380952382</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>
@@ -46417,16 +46433,18 @@
         <v>1.54</v>
       </c>
       <c r="G116" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>1.38</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.07</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5524,13 +5524,15 @@
       <c r="H116" t="n">
         <v>0.55</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.25</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -10580,13 +10582,15 @@
       <c r="H116" t="n">
         <v>1.59</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.31</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -15716,13 +15720,15 @@
       <c r="H116" t="n">
         <v>1</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.87</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.83</v>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -20852,13 +20858,15 @@
       <c r="H116" t="n">
         <v>1.25</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.51</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.01</v>
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -25894,13 +25902,15 @@
       <c r="H116" t="n">
         <v>0.78</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.14</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>
@@ -31030,13 +31040,15 @@
       <c r="H116" t="n">
         <v>1.09</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>0.21</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -36166,13 +36178,15 @@
       <c r="H116" t="n">
         <v>1.24</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>0.52</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>
@@ -41302,13 +41316,15 @@
       <c r="H116" t="n">
         <v>1.072952380952382</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.1930000000000004</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -46438,13 +46454,15 @@
       <c r="H116" t="n">
         <v>1.07</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.19</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5527,12 +5527,14 @@
       <c r="I116" t="n">
         <v>-0.25</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.16</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -10585,12 +10587,14 @@
       <c r="I116" t="n">
         <v>-0.31</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.15</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -15723,12 +15727,14 @@
       <c r="I116" t="n">
         <v>-0.87</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.88</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -20861,12 +20867,14 @@
       <c r="I116" t="n">
         <v>-0.51</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -25905,12 +25913,14 @@
       <c r="I116" t="n">
         <v>-0.14</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.04</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>
@@ -31043,12 +31053,14 @@
       <c r="I116" t="n">
         <v>0.21</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.54</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -36181,12 +36193,14 @@
       <c r="I116" t="n">
         <v>0.52</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.68</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>
@@ -41319,12 +41333,14 @@
       <c r="I116" t="n">
         <v>-0.1930000000000004</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.20752380952381</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -46457,12 +46473,14 @@
       <c r="I116" t="n">
         <v>-0.19</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.21</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5528,13 +5528,15 @@
         <v>-0.25</v>
       </c>
       <c r="J116" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+        <v>1.06</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.83</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -10590,11 +10592,13 @@
       <c r="J116" t="n">
         <v>1.15</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.8</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -15730,11 +15734,13 @@
       <c r="J116" t="n">
         <v>0.88</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.55</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -20870,11 +20876,13 @@
       <c r="J116" t="n">
         <v>1.01</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.4</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -25916,11 +25924,13 @@
       <c r="J116" t="n">
         <v>1.04</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.23</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>
@@ -31056,7 +31066,9 @@
       <c r="J116" t="n">
         <v>1.54</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.79</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
@@ -36196,11 +36208,13 @@
       <c r="J116" t="n">
         <v>1.68</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1.79</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>
@@ -41334,13 +41348,15 @@
         <v>-0.1930000000000004</v>
       </c>
       <c r="J116" t="n">
-        <v>1.20752380952381</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+        <v>1.193238095238096</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.7713333333333333</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -46474,13 +46490,15 @@
         <v>-0.19</v>
       </c>
       <c r="J116" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+        <v>1.19</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.77</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5533,10 +5533,12 @@
       <c r="K116" t="n">
         <v>0.83</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.58</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -10595,10 +10597,12 @@
       <c r="K116" t="n">
         <v>0.8</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.79</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -15737,10 +15741,12 @@
       <c r="K116" t="n">
         <v>0.55</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.09</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
@@ -20879,10 +20885,12 @@
       <c r="K116" t="n">
         <v>0.4</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.49</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -25927,10 +25935,12 @@
       <c r="K116" t="n">
         <v>0.23</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.85</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
@@ -31069,10 +31079,12 @@
       <c r="K116" t="n">
         <v>0.79</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.11</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -36211,10 +36223,12 @@
       <c r="K116" t="n">
         <v>1.79</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>-0.39</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>
@@ -41353,10 +41367,12 @@
       <c r="K116" t="n">
         <v>0.7713333333333333</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.3601904761904743</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -46495,10 +46511,12 @@
       <c r="K116" t="n">
         <v>0.77</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.36</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5536,10 +5536,30 @@
       <c r="L116" t="n">
         <v>0.58</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.88</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.31</v>
-      </c>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5552,7 +5572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10600,10 +10620,30 @@
       <c r="L116" t="n">
         <v>0.79</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.42</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.53</v>
-      </c>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10616,7 +10656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15744,10 +15784,30 @@
       <c r="L116" t="n">
         <v>0.09</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.17</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.59</v>
-      </c>
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15760,7 +15820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20888,10 +20948,30 @@
       <c r="L116" t="n">
         <v>0.49</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.2</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.77</v>
-      </c>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20904,7 +20984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25938,10 +26018,30 @@
       <c r="L116" t="n">
         <v>0.85</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.4</v>
+      </c>
       <c r="N116" t="n">
-        <v>1.34</v>
-      </c>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25954,7 +26054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31082,10 +31182,30 @@
       <c r="L116" t="n">
         <v>0.11</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.04</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.75</v>
-      </c>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31098,7 +31218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36226,10 +36346,30 @@
       <c r="L116" t="n">
         <v>-0.39</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.74</v>
+      </c>
       <c r="N116" t="n">
-        <v>1.33</v>
-      </c>
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36242,7 +36382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41370,10 +41510,30 @@
       <c r="L116" t="n">
         <v>0.3601904761904743</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.8358571428571437</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.8</v>
-      </c>
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41386,7 +41546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46514,10 +46674,30 @@
       <c r="L116" t="n">
         <v>0.36</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.84</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.8</v>
-      </c>
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5547,7 +5547,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.83</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -5559,7 +5561,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10631,7 +10635,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.86</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -10643,7 +10649,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15795,7 +15803,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.85</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -15807,7 +15817,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.85</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20959,7 +20971,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.48</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -20971,7 +20985,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26029,7 +26045,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.1</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -26041,7 +26059,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31193,7 +31213,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.65</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -31205,7 +31227,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36357,7 +36381,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.4</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -36369,7 +36395,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41521,7 +41549,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.595142857142858</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -41533,7 +41563,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -46685,7 +46717,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.6</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -46697,7 +46731,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5550,7 +5550,9 @@
       <c r="B117" t="n">
         <v>1.83</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.47</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -5562,7 +5564,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.83</v>
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>
@@ -10638,7 +10640,9 @@
       <c r="B117" t="n">
         <v>1.86</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.64</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -10650,7 +10654,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -15806,7 +15810,9 @@
       <c r="B117" t="n">
         <v>1.85</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.05</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -15818,7 +15824,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.85</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -20974,7 +20980,9 @@
       <c r="B117" t="n">
         <v>1.48</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -20986,7 +20994,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.48</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -26048,7 +26056,9 @@
       <c r="B117" t="n">
         <v>1.1</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.65</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -26060,7 +26070,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.1</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -31216,7 +31226,9 @@
       <c r="B117" t="n">
         <v>1.65</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.22</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -31228,7 +31240,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.65</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -36384,7 +36396,9 @@
       <c r="B117" t="n">
         <v>1.4</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>1.12</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -36396,7 +36410,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
@@ -41552,7 +41566,9 @@
       <c r="B117" t="n">
         <v>1.595142857142858</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.261333333333334</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -41564,7 +41580,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.6</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
@@ -46720,7 +46736,9 @@
       <c r="B117" t="n">
         <v>1.6</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.26</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -46732,7 +46750,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.6</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5553,7 +5553,9 @@
       <c r="C117" t="n">
         <v>0.47</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.17</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -5564,7 +5566,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.15</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -10643,7 +10645,9 @@
       <c r="C117" t="n">
         <v>0.64</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.25</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -10654,7 +10658,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -15813,7 +15817,9 @@
       <c r="C117" t="n">
         <v>-0.05</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.52</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -15824,7 +15830,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.9</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -20983,7 +20989,9 @@
       <c r="C117" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.36</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -20994,7 +21002,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.78</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -26059,7 +26067,9 @@
       <c r="C117" t="n">
         <v>-0.65</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.18</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -26070,7 +26080,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.23</v>
+        <v>-0.24</v>
       </c>
     </row>
   </sheetData>
@@ -31229,7 +31239,9 @@
       <c r="C117" t="n">
         <v>0.22</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.49</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -31240,7 +31252,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -36399,7 +36411,9 @@
       <c r="C117" t="n">
         <v>1.12</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.76</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -36410,7 +36424,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.26</v>
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
@@ -41569,7 +41583,9 @@
       <c r="C117" t="n">
         <v>0.261333333333334</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.8162857142857136</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -41580,7 +41596,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.93</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -46739,7 +46755,9 @@
       <c r="C117" t="n">
         <v>0.26</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.82</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -46750,7 +46768,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.93</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5556,7 +5556,9 @@
       <c r="D117" t="n">
         <v>-1.17</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.23</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -5566,7 +5568,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -10511,7 +10513,7 @@
         <v>1.16</v>
       </c>
       <c r="C114" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="D114" t="n">
         <v>0.45</v>
@@ -10544,7 +10546,7 @@
         <v>0.92</v>
       </c>
       <c r="N114" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="115">
@@ -10648,7 +10650,9 @@
       <c r="D117" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>1.17</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -10658,7 +10662,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -15820,7 +15824,9 @@
       <c r="D117" t="n">
         <v>-0.52</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.51</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -15830,7 +15836,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -20949,7 +20955,7 @@
         <v>0.64</v>
       </c>
       <c r="E116" t="n">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="F116" t="n">
         <v>1.1</v>
@@ -20976,7 +20982,7 @@
         <v>1.2</v>
       </c>
       <c r="N116" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -20992,7 +20998,9 @@
       <c r="D117" t="n">
         <v>-0.36</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.23</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -21002,7 +21010,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -26070,7 +26078,9 @@
       <c r="D117" t="n">
         <v>-1.18</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>-0.01</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -26080,7 +26090,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.24</v>
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -31242,7 +31252,9 @@
       <c r="D117" t="n">
         <v>-1.49</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.96</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -31252,7 +31264,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -36414,7 +36426,9 @@
       <c r="D117" t="n">
         <v>-0.76</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.82</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -36424,7 +36438,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -41449,7 +41463,7 @@
         <v>0.4094285714285719</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3613333333333334</v>
+        <v>0.3470476190476189</v>
       </c>
       <c r="D114" t="n">
         <v>0.4265714285714287</v>
@@ -41543,7 +41557,7 @@
         <v>0.1551428571428574</v>
       </c>
       <c r="E116" t="n">
-        <v>0.7451428571428548</v>
+        <v>0.7594285714285688</v>
       </c>
       <c r="F116" t="n">
         <v>1.537047619047619</v>
@@ -41586,7 +41600,9 @@
       <c r="D117" t="n">
         <v>-0.8162857142857136</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.5594285714285695</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -41596,7 +41612,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -46621,7 +46637,7 @@
         <v>0.41</v>
       </c>
       <c r="C114" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="D114" t="n">
         <v>0.43</v>
@@ -46715,7 +46731,7 @@
         <v>0.16</v>
       </c>
       <c r="E116" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="F116" t="n">
         <v>1.54</v>
@@ -46758,7 +46774,9 @@
       <c r="D117" t="n">
         <v>-0.82</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.5600000000000001</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -46768,7 +46786,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5559,7 +5559,9 @@
       <c r="E117" t="n">
         <v>0.23</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.63</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -5568,7 +5570,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -10653,7 +10655,9 @@
       <c r="E117" t="n">
         <v>1.17</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.71</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -10662,7 +10666,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.86</v>
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
@@ -15827,7 +15831,9 @@
       <c r="E117" t="n">
         <v>0.51</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.92</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -15836,7 +15842,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.45</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -21001,7 +21007,9 @@
       <c r="E117" t="n">
         <v>0.23</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.9</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -21010,7 +21018,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -26081,7 +26089,9 @@
       <c r="E117" t="n">
         <v>-0.01</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.49</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -26090,7 +26100,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.18</v>
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
@@ -31255,7 +31265,9 @@
       <c r="E117" t="n">
         <v>0.96</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.7</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -31264,7 +31276,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.34</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -36429,7 +36441,9 @@
       <c r="E117" t="n">
         <v>0.82</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.89</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -36438,7 +36452,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.64</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -41603,7 +41617,9 @@
       <c r="E117" t="n">
         <v>0.5594285714285695</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.8915238095238089</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -41612,7 +41628,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -46777,7 +46793,9 @@
       <c r="E117" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.89</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -46786,7 +46804,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5562,7 +5562,9 @@
       <c r="F117" t="n">
         <v>-0.63</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.24</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5570,7 +5572,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -10658,7 +10660,9 @@
       <c r="F117" t="n">
         <v>-0.71</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.78</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -10666,7 +10670,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.54</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -15834,7 +15838,9 @@
       <c r="F117" t="n">
         <v>-0.92</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.83</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -15842,7 +15848,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -21010,7 +21016,9 @@
       <c r="F117" t="n">
         <v>-0.9</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.78</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -21018,7 +21026,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
@@ -26092,7 +26100,9 @@
       <c r="F117" t="n">
         <v>-0.49</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.97</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -26100,7 +26110,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.25</v>
+        <v>-0.04</v>
       </c>
     </row>
   </sheetData>
@@ -31268,7 +31278,9 @@
       <c r="F117" t="n">
         <v>-1.7</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.62</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -31276,7 +31288,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -36444,7 +36456,9 @@
       <c r="F117" t="n">
         <v>-0.89</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.65</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -36452,7 +36466,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -41620,7 +41634,9 @@
       <c r="F117" t="n">
         <v>-0.8915238095238089</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.9833333333333333</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -41628,7 +41644,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -46796,7 +46812,9 @@
       <c r="F117" t="n">
         <v>-0.89</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.98</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -46804,7 +46822,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5565,14 +5565,16 @@
       <c r="G117" t="n">
         <v>1.24</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.65</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -10663,14 +10665,16 @@
       <c r="G117" t="n">
         <v>1.78</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.29</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -15841,14 +15845,16 @@
       <c r="G117" t="n">
         <v>0.83</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.5</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -21019,14 +21025,16 @@
       <c r="G117" t="n">
         <v>0.78</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.85</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -26103,14 +26111,16 @@
       <c r="G117" t="n">
         <v>0.97</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.18</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.04</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -31281,14 +31291,16 @@
       <c r="G117" t="n">
         <v>0.62</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.29</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -36459,14 +36471,16 @@
       <c r="G117" t="n">
         <v>0.65</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.84</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -41637,14 +41651,16 @@
       <c r="G117" t="n">
         <v>0.9833333333333333</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.8015238095238103</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -46815,14 +46831,16 @@
       <c r="G117" t="n">
         <v>0.98</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.8</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMax_unrounded" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMax_rounded" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="NZT7_TMax_unrounded" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="NZT7_TMax_rounded" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -5568,13 +5567,15 @@
       <c r="H117" t="n">
         <v>0.65</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
@@ -10668,13 +10669,15 @@
       <c r="H117" t="n">
         <v>1.29</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.39</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -15848,13 +15851,15 @@
       <c r="H117" t="n">
         <v>0.5</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.43</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -21028,13 +21033,15 @@
       <c r="H117" t="n">
         <v>0.85</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -26114,13 +26121,15 @@
       <c r="H117" t="n">
         <v>1.18</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.76</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -31294,13 +31303,15 @@
       <c r="H117" t="n">
         <v>0.29</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.11</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -36474,13 +36485,15 @@
       <c r="H117" t="n">
         <v>0.84</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.72</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -41654,13 +41667,15 @@
       <c r="H117" t="n">
         <v>0.8015238095238103</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.021285714285714</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -46834,13 +46849,15 @@
       <c r="H117" t="n">
         <v>0.8</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5570,12 +5570,14 @@
       <c r="I117" t="n">
         <v>1.05</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.5600000000000001</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -10672,12 +10674,14 @@
       <c r="I117" t="n">
         <v>1.39</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.55</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -15854,12 +15858,14 @@
       <c r="I117" t="n">
         <v>0.43</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.68</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -21036,12 +21042,14 @@
       <c r="I117" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.11</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -26124,12 +26132,14 @@
       <c r="I117" t="n">
         <v>0.76</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>-0.16</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -31306,12 +31316,14 @@
       <c r="I117" t="n">
         <v>1.11</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.64</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -36488,12 +36500,14 @@
       <c r="I117" t="n">
         <v>1.72</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.58</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
@@ -41670,12 +41684,14 @@
       <c r="I117" t="n">
         <v>1.021285714285714</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.8503809523809538</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -46852,12 +46868,14 @@
       <c r="I117" t="n">
         <v>1.02</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.85</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -5573,11 +5573,13 @@
       <c r="J117" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1.23</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.47</v>
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
@@ -10677,7 +10679,9 @@
       <c r="J117" t="n">
         <v>0.55</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.9</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
@@ -15861,11 +15865,13 @@
       <c r="J117" t="n">
         <v>0.68</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.95</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -21045,11 +21051,13 @@
       <c r="J117" t="n">
         <v>1.11</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>-0.2</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -26135,11 +26143,13 @@
       <c r="J117" t="n">
         <v>-0.16</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.93</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -31319,11 +31329,13 @@
       <c r="J117" t="n">
         <v>1.64</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -36503,11 +36515,13 @@
       <c r="J117" t="n">
         <v>1.58</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.49</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -41687,11 +41701,13 @@
       <c r="J117" t="n">
         <v>0.8503809523809538</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.714190476190476</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -46871,11 +46887,13 @@
       <c r="J117" t="n">
         <v>0.85</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.71</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -10779,7 +10779,7 @@
         <v>1909</v>
       </c>
       <c r="B2" t="n">
-        <v>-2</v>
+        <v>-2.01</v>
       </c>
       <c r="C2" t="n">
         <v>-1.59</v>
@@ -10823,7 +10823,7 @@
         <v>1910</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3</v>
+        <v>-0.31</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
@@ -10867,7 +10867,7 @@
         <v>1911</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4</v>
+        <v>-0.41</v>
       </c>
       <c r="C4" t="n">
         <v>-1.5</v>
@@ -10955,7 +10955,7 @@
         <v>1913</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.96</v>
+        <v>-0.97</v>
       </c>
       <c r="C6" t="n">
         <v>-1.55</v>
@@ -10999,7 +10999,7 @@
         <v>1914</v>
       </c>
       <c r="B7" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="C7" t="n">
         <v>-0.86</v>
@@ -11035,7 +11035,7 @@
         <v>-2.44</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.87</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="8">
@@ -11087,7 +11087,7 @@
         <v>1916</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="C9" t="n">
         <v>-1.05</v>
@@ -11175,7 +11175,7 @@
         <v>1918</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="C11" t="n">
         <v>0.34</v>
@@ -11219,7 +11219,7 @@
         <v>1919</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.96</v>
+        <v>-2.97</v>
       </c>
       <c r="C12" t="n">
         <v>-0.86</v>
@@ -11263,7 +11263,7 @@
         <v>1920</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.36</v>
+        <v>-2.37</v>
       </c>
       <c r="C13" t="n">
         <v>-0.75</v>
@@ -11307,7 +11307,7 @@
         <v>1921</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.36</v>
+        <v>-0.37</v>
       </c>
       <c r="C14" t="n">
         <v>-0.96</v>
@@ -11439,7 +11439,7 @@
         <v>1924</v>
       </c>
       <c r="B17" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="C17" t="n">
         <v>-0.16</v>
@@ -11483,7 +11483,7 @@
         <v>1925</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="C18" t="n">
         <v>-1.05</v>
@@ -11527,7 +11527,7 @@
         <v>1926</v>
       </c>
       <c r="B19" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="C19" t="n">
         <v>-2.36</v>
@@ -11571,7 +11571,7 @@
         <v>1927</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="C20" t="n">
         <v>1.25</v>
@@ -11615,7 +11615,7 @@
         <v>1928</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="C21" t="n">
         <v>1.09</v>
@@ -11659,7 +11659,7 @@
         <v>1929</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.32</v>
+        <v>-1.33</v>
       </c>
       <c r="C22" t="n">
         <v>-0.91</v>
@@ -11703,7 +11703,7 @@
         <v>1930</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.22</v>
+        <v>-2.23</v>
       </c>
       <c r="C23" t="n">
         <v>-1.62</v>
@@ -11747,7 +11747,7 @@
         <v>1931</v>
       </c>
       <c r="B24" t="n">
-        <v>-2.32</v>
+        <v>-2.33</v>
       </c>
       <c r="C24" t="n">
         <v>-3.32</v>
@@ -11791,7 +11791,7 @@
         <v>1932</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.02</v>
+        <v>-2.03</v>
       </c>
       <c r="C25" t="n">
         <v>-2.12</v>
@@ -11835,7 +11835,7 @@
         <v>1933</v>
       </c>
       <c r="B26" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="C26" t="n">
         <v>-1.02</v>
@@ -11871,7 +11871,7 @@
         <v>0.4</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.38</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="27">
@@ -11879,7 +11879,7 @@
         <v>1934</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
       <c r="C27" t="n">
         <v>-0.62</v>
@@ -11923,7 +11923,7 @@
         <v>1935</v>
       </c>
       <c r="B28" t="n">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="C28" t="n">
         <v>1.88</v>
@@ -11967,7 +11967,7 @@
         <v>1936</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="C29" t="n">
         <v>-0.91</v>
@@ -12055,7 +12055,7 @@
         <v>1938</v>
       </c>
       <c r="B31" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C31" t="n">
         <v>1.09</v>
@@ -12099,7 +12099,7 @@
         <v>1939</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.32</v>
+        <v>-1.33</v>
       </c>
       <c r="C32" t="n">
         <v>-0.71</v>
@@ -12143,7 +12143,7 @@
         <v>1940</v>
       </c>
       <c r="B33" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="C33" t="n">
         <v>-1.32</v>
@@ -12187,7 +12187,7 @@
         <v>1941</v>
       </c>
       <c r="B34" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="C34" t="n">
         <v>-1.52</v>
@@ -12231,7 +12231,7 @@
         <v>1942</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.52</v>
+        <v>-1.53</v>
       </c>
       <c r="C35" t="n">
         <v>-1.62</v>
@@ -12275,7 +12275,7 @@
         <v>1943</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="C36" t="n">
         <v>-0.52</v>
@@ -12319,7 +12319,7 @@
         <v>1944</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="C37" t="n">
         <v>-0.41</v>
@@ -12407,7 +12407,7 @@
         <v>1946</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.52</v>
+        <v>-0.53</v>
       </c>
       <c r="C39" t="n">
         <v>-0.12</v>
@@ -12495,7 +12495,7 @@
         <v>1948</v>
       </c>
       <c r="B41" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="C41" t="n">
         <v>0.38</v>
@@ -12539,7 +12539,7 @@
         <v>1949</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.02</v>
+        <v>-1.03</v>
       </c>
       <c r="C42" t="n">
         <v>0.79</v>
@@ -12583,7 +12583,7 @@
         <v>1950</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.02</v>
+        <v>-1.03</v>
       </c>
       <c r="C43" t="n">
         <v>-1.12</v>
@@ -12627,7 +12627,7 @@
         <v>1951</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.12</v>
+        <v>-1.13</v>
       </c>
       <c r="C44" t="n">
         <v>-0.12</v>
@@ -12671,7 +12671,7 @@
         <v>1952</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.52</v>
+        <v>-1.53</v>
       </c>
       <c r="C45" t="n">
         <v>-0.02</v>
@@ -12715,7 +12715,7 @@
         <v>1953</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.82</v>
+        <v>-1.83</v>
       </c>
       <c r="C46" t="n">
         <v>-2.32</v>
@@ -12759,7 +12759,7 @@
         <v>1954</v>
       </c>
       <c r="B47" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="C47" t="n">
         <v>0.18</v>
@@ -12803,7 +12803,7 @@
         <v>1955</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="C48" t="n">
         <v>-0.12</v>
@@ -12839,7 +12839,7 @@
         <v>0.3</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="49">
@@ -12935,7 +12935,7 @@
         <v>1958</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.72</v>
+        <v>-1.73</v>
       </c>
       <c r="C51" t="n">
         <v>-0.32</v>
@@ -12979,7 +12979,7 @@
         <v>1959</v>
       </c>
       <c r="B52" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="C52" t="n">
         <v>-0.82</v>
@@ -13023,7 +13023,7 @@
         <v>1960</v>
       </c>
       <c r="B53" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="C53" t="n">
         <v>-0.91</v>
@@ -13067,7 +13067,7 @@
         <v>1961</v>
       </c>
       <c r="B54" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="C54" t="n">
         <v>-0.32</v>
@@ -13111,7 +13111,7 @@
         <v>1962</v>
       </c>
       <c r="B55" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="C55" t="n">
         <v>-0.32</v>
@@ -13155,7 +13155,7 @@
         <v>1963</v>
       </c>
       <c r="B56" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="C56" t="n">
         <v>0.59</v>
@@ -13243,7 +13243,7 @@
         <v>1965</v>
       </c>
       <c r="B58" t="n">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="C58" t="n">
         <v>-0.21</v>
@@ -13287,7 +13287,7 @@
         <v>1966</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.52</v>
+        <v>-1.53</v>
       </c>
       <c r="C59" t="n">
         <v>0.48</v>
@@ -13331,7 +13331,7 @@
         <v>1967</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.62</v>
+        <v>-1.63</v>
       </c>
       <c r="C60" t="n">
         <v>-0.82</v>
@@ -13419,7 +13419,7 @@
         <v>1969</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="C62" t="n">
         <v>-1.91</v>
@@ -13463,7 +13463,7 @@
         <v>1970</v>
       </c>
       <c r="B63" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="C63" t="n">
         <v>-0.32</v>
@@ -13507,7 +13507,7 @@
         <v>1971</v>
       </c>
       <c r="B64" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="C64" t="n">
         <v>2.09</v>
@@ -13543,7 +13543,7 @@
         <v>0.5</v>
       </c>
       <c r="N64" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="65">
@@ -13595,7 +13595,7 @@
         <v>1973</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="C66" t="n">
         <v>0.48</v>
@@ -13639,7 +13639,7 @@
         <v>1974</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
       <c r="C67" t="n">
         <v>1.09</v>
@@ -13683,7 +13683,7 @@
         <v>1975</v>
       </c>
       <c r="B68" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="C68" t="n">
         <v>0.79</v>
@@ -13771,7 +13771,7 @@
         <v>1977</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.72</v>
+        <v>-1.73</v>
       </c>
       <c r="C70" t="n">
         <v>-1.21</v>
@@ -13859,7 +13859,7 @@
         <v>1979</v>
       </c>
       <c r="B72" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="C72" t="n">
         <v>-0.12</v>
@@ -13903,7 +13903,7 @@
         <v>1980</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.52</v>
+        <v>-0.53</v>
       </c>
       <c r="C73" t="n">
         <v>-1.02</v>
@@ -13947,7 +13947,7 @@
         <v>1981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="C74" t="n">
         <v>0.59</v>
@@ -13991,7 +13991,7 @@
         <v>1982</v>
       </c>
       <c r="B75" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="C75" t="n">
         <v>1.38</v>
@@ -14035,7 +14035,7 @@
         <v>1983</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.32</v>
+        <v>-1.33</v>
       </c>
       <c r="C76" t="n">
         <v>-1.21</v>
@@ -14079,7 +14079,7 @@
         <v>1984</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.52</v>
+        <v>-1.53</v>
       </c>
       <c r="C77" t="n">
         <v>-1.02</v>
@@ -14123,7 +14123,7 @@
         <v>1985</v>
       </c>
       <c r="B78" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="C78" t="n">
         <v>0.59</v>
@@ -14167,7 +14167,7 @@
         <v>1986</v>
       </c>
       <c r="B79" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="C79" t="n">
         <v>0.29</v>
@@ -14211,7 +14211,7 @@
         <v>1987</v>
       </c>
       <c r="B80" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="C80" t="n">
         <v>-0.62</v>
@@ -14255,7 +14255,7 @@
         <v>1988</v>
       </c>
       <c r="B81" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="C81" t="n">
         <v>0.29</v>
@@ -14299,7 +14299,7 @@
         <v>1989</v>
       </c>
       <c r="B82" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="C82" t="n">
         <v>-0.41</v>
@@ -14335,7 +14335,7 @@
         <v>-1.1</v>
       </c>
       <c r="N82" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="83">
@@ -14343,7 +14343,7 @@
         <v>1990</v>
       </c>
       <c r="B83" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="C83" t="n">
         <v>1.98</v>
@@ -14387,7 +14387,7 @@
         <v>1991</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.82</v>
+        <v>-0.83</v>
       </c>
       <c r="C84" t="n">
         <v>-0.52</v>
@@ -14431,7 +14431,7 @@
         <v>1992</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="C85" t="n">
         <v>-1.62</v>
@@ -14475,7 +14475,7 @@
         <v>1993</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.72</v>
+        <v>-1.73</v>
       </c>
       <c r="C86" t="n">
         <v>-1.91</v>
@@ -14511,7 +14511,7 @@
         <v>-1.3</v>
       </c>
       <c r="N86" t="n">
-        <v>-0.93</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="87">
@@ -14519,7 +14519,7 @@
         <v>1994</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.52</v>
+        <v>-0.53</v>
       </c>
       <c r="C87" t="n">
         <v>1.09</v>
@@ -14563,7 +14563,7 @@
         <v>1995</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
       <c r="C88" t="n">
         <v>-0.12</v>
@@ -14607,7 +14607,7 @@
         <v>1996</v>
       </c>
       <c r="B89" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="C89" t="n">
         <v>-0.21</v>
@@ -14643,7 +14643,7 @@
         <v>-0.9</v>
       </c>
       <c r="N89" t="n">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="90">
@@ -14695,7 +14695,7 @@
         <v>1998</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="C91" t="n">
         <v>1.78</v>
@@ -14739,7 +14739,7 @@
         <v>1999</v>
       </c>
       <c r="B92" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="C92" t="n">
         <v>1.38</v>
@@ -14783,7 +14783,7 @@
         <v>2000</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.12</v>
+        <v>-1.13</v>
       </c>
       <c r="C93" t="n">
         <v>-0.71</v>
@@ -14827,7 +14827,7 @@
         <v>2001</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="C94" t="n">
         <v>1.09</v>
@@ -14871,7 +14871,7 @@
         <v>2002</v>
       </c>
       <c r="B95" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="C95" t="n">
         <v>-1.62</v>
@@ -14915,7 +14915,7 @@
         <v>2003</v>
       </c>
       <c r="B96" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="C96" t="n">
         <v>-0.12</v>
@@ -14959,7 +14959,7 @@
         <v>2004</v>
       </c>
       <c r="B97" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="C97" t="n">
         <v>-2.02</v>
@@ -14995,7 +14995,7 @@
         <v>-1.4</v>
       </c>
       <c r="N97" t="n">
-        <v>-0.68</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="98">
@@ -15003,7 +15003,7 @@
         <v>2005</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
       <c r="C98" t="n">
         <v>1.38</v>
@@ -15047,7 +15047,7 @@
         <v>2006</v>
       </c>
       <c r="B99" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="C99" t="n">
         <v>0.16</v>
@@ -15091,7 +15091,7 @@
         <v>2007</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.45</v>
+        <v>-1.46</v>
       </c>
       <c r="C100" t="n">
         <v>-0.25</v>
@@ -15135,7 +15135,7 @@
         <v>2008</v>
       </c>
       <c r="B101" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="C101" t="n">
         <v>0.66</v>
@@ -15223,7 +15223,7 @@
         <v>2010</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.15</v>
+        <v>-1.16</v>
       </c>
       <c r="C103" t="n">
         <v>-0.25</v>
@@ -15267,7 +15267,7 @@
         <v>2011</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="C104" t="n">
         <v>0.25</v>
@@ -15311,7 +15311,7 @@
         <v>2012</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.15</v>
+        <v>-1.16</v>
       </c>
       <c r="C105" t="n">
         <v>-1.75</v>
@@ -15355,7 +15355,7 @@
         <v>2013</v>
       </c>
       <c r="B106" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="C106" t="n">
         <v>0.25</v>
@@ -15399,7 +15399,7 @@
         <v>2014</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.65</v>
+        <v>-0.66</v>
       </c>
       <c r="C107" t="n">
         <v>-0.14</v>
@@ -15443,7 +15443,7 @@
         <v>2015</v>
       </c>
       <c r="B108" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="C108" t="n">
         <v>-0.25</v>
@@ -15487,7 +15487,7 @@
         <v>2016</v>
       </c>
       <c r="B109" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="C109" t="n">
         <v>2.66</v>
@@ -15531,7 +15531,7 @@
         <v>2017</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.15</v>
+        <v>-1.16</v>
       </c>
       <c r="C110" t="n">
         <v>-0.34</v>
@@ -15567,7 +15567,7 @@
         <v>2.77</v>
       </c>
       <c r="N110" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="111">
@@ -15575,7 +15575,7 @@
         <v>2018</v>
       </c>
       <c r="B111" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="C111" t="n">
         <v>0.95</v>
@@ -15619,7 +15619,7 @@
         <v>2019</v>
       </c>
       <c r="B112" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="C112" t="n">
         <v>0.25</v>
@@ -15707,7 +15707,7 @@
         <v>2021</v>
       </c>
       <c r="B114" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="C114" t="n">
         <v>0.05</v>
@@ -15795,7 +15795,7 @@
         <v>2023</v>
       </c>
       <c r="B116" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="C116" t="n">
         <v>0.25</v>
@@ -15839,7 +15839,7 @@
         <v>2024</v>
       </c>
       <c r="B117" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="C117" t="n">
         <v>-0.05</v>
@@ -15871,7 +15871,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -36615,40 +36615,40 @@
         <v>1909</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.969333333333335</v>
+        <v>-1.969333333333336</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2218333333333335</v>
+        <v>-0.2218333333333327</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2185000000000015</v>
+        <v>-0.2185000000000024</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8285000000000018</v>
+        <v>-0.8285000000000005</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.265166666666667</v>
+        <v>-0.2651666666666661</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0649999999999995</v>
+        <v>-0.06500000000000039</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.541499999999999</v>
+        <v>-1.5415</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3750000000000013</v>
+        <v>-0.375</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.9107499999999988</v>
+        <v>-0.9107499999999984</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.1790833333333341</v>
+        <v>-0.1790833333333333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5125833333333336</v>
+        <v>0.5125833333333354</v>
       </c>
       <c r="M2" t="n">
-        <v>2.025833333333332</v>
+        <v>2.025833333333333</v>
       </c>
       <c r="N2" t="n">
         <v>-0.34</v>
@@ -36659,40 +36659,40 @@
         <v>1910</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2412000000000013</v>
+        <v>-0.2412000000000027</v>
       </c>
       <c r="C3" t="n">
         <v>0.5854666666666652</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0801333333333325</v>
+        <v>0.08013333333333179</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.7498666666666676</v>
+        <v>-0.7498666666666665</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2298666666666662</v>
+        <v>-0.2298666666666655</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4950666666666667</v>
+        <v>-0.495066666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.894933333333333</v>
+        <v>-1.894933333333334</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2026000000000011</v>
+        <v>-0.2026</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2108000000000008</v>
+        <v>0.2108000000000011</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5914666666666666</v>
+        <v>0.5914666666666673</v>
       </c>
       <c r="L3" t="n">
         <v>1.574133333333334</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02473333333333372</v>
+        <v>0.02473333333333443</v>
       </c>
       <c r="N3" t="n">
         <v>-0.06</v>
@@ -36703,40 +36703,40 @@
         <v>1911</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4012000000000001</v>
+        <v>-0.4012000000000014</v>
       </c>
       <c r="C4" t="n">
         <v>-1.334533333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8001333333333328</v>
+        <v>0.800133333333332</v>
       </c>
       <c r="E4" t="n">
-        <v>1.130133333333333</v>
+        <v>1.130133333333334</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3498666666666665</v>
+        <v>-0.3498666666666658</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.9350666666666669</v>
+        <v>-0.9350666666666673</v>
       </c>
       <c r="H4" t="n">
         <v>-1.294933333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3026000000000014</v>
+        <v>-0.3026000000000003</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.6891999999999985</v>
+        <v>-0.6891999999999981</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.5685333333333343</v>
+        <v>-0.5685333333333336</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.8658666666666658</v>
+        <v>-0.8658666666666651</v>
       </c>
       <c r="M4" t="n">
-        <v>-2.395266666666666</v>
+        <v>-2.395266666666665</v>
       </c>
       <c r="N4" t="n">
         <v>-0.6</v>
@@ -36747,7 +36747,7 @@
         <v>1912</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.941200000000001</v>
+        <v>-1.941200000000003</v>
       </c>
       <c r="C5" t="n">
         <v>-2.620111111111111</v>
@@ -36756,7 +36756,7 @@
         <v>-2.706222222222223</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.8767777777777797</v>
+        <v>-0.8767777777777788</v>
       </c>
       <c r="F5" t="n">
         <v>-2.391222222222221</v>
@@ -36768,19 +36768,19 @@
         <v>-2.055444444444444</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.229055555555556</v>
+        <v>-1.229055555555555</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.6724761904761891</v>
+        <v>-0.6724761904761886</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1229523809523815</v>
+        <v>-0.1229523809523812</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.10552380952381</v>
+        <v>-1.105523809523808</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2844285714285724</v>
+        <v>0.2844285714285729</v>
       </c>
       <c r="N5" t="n">
         <v>-1.42</v>
@@ -36791,16 +36791,16 @@
         <v>1913</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4134285714285712</v>
+        <v>-0.4134285714285727</v>
       </c>
       <c r="C6" t="n">
         <v>-1.502952380952381</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4677142857142864</v>
+        <v>-0.4677142857142869</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.006285714285716</v>
+        <v>-2.006285714285715</v>
       </c>
       <c r="F6" t="n">
         <v>-3.44295238095238</v>
@@ -36809,19 +36809,19 @@
         <v>-1.668095238095238</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.7213333333333328</v>
+        <v>-0.721333333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.315857142857143</v>
+        <v>-1.315857142857142</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1418095238095248</v>
+        <v>0.1418095238095253</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00561904761904738</v>
+        <v>0.005619047619047635</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.8912380952380958</v>
+        <v>-0.8912380952380943</v>
       </c>
       <c r="M6" t="n">
         <v>-1.744142857142857</v>
@@ -36835,37 +36835,37 @@
         <v>1914</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7865714285714291</v>
+        <v>0.7865714285714276</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8043809523809523</v>
+        <v>-0.8043809523809529</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5962857142857142</v>
+        <v>-0.5962857142857148</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8191428571428589</v>
+        <v>-0.8191428571428582</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.685809523809524</v>
+        <v>-2.685809523809523</v>
       </c>
       <c r="G7" t="n">
         <v>-1.710952380952381</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.235619047619047</v>
+        <v>-1.235619047619048</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8730000000000001</v>
+        <v>-0.8729999999999996</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.258190476190475</v>
+        <v>-0.2581904761904745</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2484761904761899</v>
+        <v>0.2484761904761901</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.9483809523809528</v>
+        <v>-0.9483809523809512</v>
       </c>
       <c r="M7" t="n">
         <v>-1.958428571428571</v>
@@ -36879,7 +36879,7 @@
         <v>1915</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5277142857142856</v>
+        <v>-0.5277142857142871</v>
       </c>
       <c r="C8" t="n">
         <v>-2.218666666666667</v>
@@ -36894,25 +36894,25 @@
         <v>-1.585809523809523</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.468095238095238</v>
+        <v>-1.468095238095239</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.3356190476190467</v>
+        <v>-0.3356190476190469</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6158571428571429</v>
+        <v>-0.6158571428571423</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6846666666666685</v>
+        <v>0.6846666666666691</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8199047619047614</v>
+        <v>0.8199047619047616</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.691238095238096</v>
+        <v>-0.6912380952380944</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.08700000000000026</v>
+        <v>-0.08699999999999974</v>
       </c>
       <c r="N8" t="n">
         <v>-0.89</v>
@@ -36923,37 +36923,37 @@
         <v>1916</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6134285714285715</v>
+        <v>-0.613428571428573</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4970476190476185</v>
+        <v>0.497047619047618</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9751428571428578</v>
+        <v>0.9751428571428572</v>
       </c>
       <c r="E9" t="n">
-        <v>0.536571428571427</v>
+        <v>0.5365714285714278</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5572380952380944</v>
+        <v>-0.5572380952380941</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7604761904761899</v>
+        <v>0.7604761904761895</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6356190476190472</v>
+        <v>-0.6356190476190474</v>
       </c>
       <c r="I9" t="n">
         <v>-1.330142857142857</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2132380952380968</v>
+        <v>0.2132380952380973</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.4372380952380957</v>
+        <v>-0.4372380952380954</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6087619047619042</v>
+        <v>0.6087619047619057</v>
       </c>
       <c r="M9" t="n">
         <v>1.841571428571429</v>
@@ -36967,40 +36967,40 @@
         <v>1917</v>
       </c>
       <c r="B10" t="n">
-        <v>1.115142857142858</v>
+        <v>1.115142857142856</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.217238095238095</v>
+        <v>-1.217238095238096</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1391428571428572</v>
+        <v>-0.1391428571428577</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1937142857142842</v>
+        <v>0.1937142857142849</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05723809523809439</v>
+        <v>-0.05723809523809414</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2252380952380957</v>
+        <v>-0.2252380952380959</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.249904761904761</v>
+        <v>-0.2499047619047613</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.8730000000000001</v>
+        <v>-0.8729999999999996</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07038095238095339</v>
+        <v>0.07038095238095389</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1341904761904755</v>
+        <v>0.1341904761904757</v>
       </c>
       <c r="L10" t="n">
-        <v>1.108761904761904</v>
+        <v>1.108761904761906</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.4298571428571429</v>
+        <v>-0.4298571428571424</v>
       </c>
       <c r="N10" t="n">
         <v>-0.05</v>
@@ -37011,22 +37011,22 @@
         <v>1918</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.5419999999999996</v>
+        <v>-0.542000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.07580952380952409</v>
+        <v>-0.07580952380952459</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6819999999999996</v>
+        <v>-0.6820000000000002</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4334285714285728</v>
+        <v>-0.4334285714285721</v>
       </c>
       <c r="F11" t="n">
         <v>-1.000095238095237</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.068095238095238</v>
+        <v>-1.068095238095239</v>
       </c>
       <c r="H11" t="n">
         <v>-2.67847619047619</v>
@@ -37035,16 +37035,16 @@
         <v>-1.087285714285714</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.243904761904761</v>
+        <v>-1.24390476190476</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.5086666666666666</v>
+        <v>-0.5086666666666664</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.319809523809525</v>
+        <v>-1.319809523809523</v>
       </c>
       <c r="M11" t="n">
-        <v>-2.001285714285714</v>
+        <v>-2.001285714285713</v>
       </c>
       <c r="N11" t="n">
         <v>-1.05</v>
@@ -37055,40 +37055,40 @@
         <v>1919</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.342</v>
+        <v>-2.342000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5615238095238096</v>
+        <v>-0.5615238095238101</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6820000000000002</v>
+        <v>-0.6820000000000006</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.292000000000001</v>
+        <v>-1.292</v>
       </c>
       <c r="F12" t="n">
         <v>-1.685809523809523</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.9823809523809527</v>
+        <v>-0.9823809523809529</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.9641904761904756</v>
+        <v>-0.9641904761904758</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.9158571428571428</v>
+        <v>-0.9158571428571423</v>
       </c>
       <c r="J12" t="n">
         <v>-1.229619047619046</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.2086666666666672</v>
+        <v>-0.2086666666666669</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.334095238095239</v>
+        <v>-1.334095238095237</v>
       </c>
       <c r="M12" t="n">
-        <v>-1.115571428571428</v>
+        <v>-1.115571428571427</v>
       </c>
       <c r="N12" t="n">
         <v>-1.11</v>
@@ -37099,40 +37099,40 @@
         <v>1920</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.513428571428571</v>
+        <v>-2.513428571428573</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5758095238095235</v>
+        <v>-0.5758095238095241</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.296285714285714</v>
+        <v>-0.2962857142857145</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.9920000000000011</v>
+        <v>-0.9920000000000003</v>
       </c>
       <c r="F13" t="n">
         <v>-2.622952380952381</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.076666666666667</v>
+        <v>-1.076666666666668</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5870476190476184</v>
+        <v>-0.5870476190476186</v>
       </c>
       <c r="I13" t="n">
-        <v>-2.010142857142857</v>
+        <v>-2.010142857142856</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.681047619047618</v>
+        <v>-1.681047619047617</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.4029523809523811</v>
+        <v>-0.4029523809523808</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.271238095238096</v>
+        <v>-1.271238095238094</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1484285714285706</v>
+        <v>-0.1484285714285701</v>
       </c>
       <c r="N13" t="n">
         <v>-1.18</v>
@@ -37143,40 +37143,40 @@
         <v>1921</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.8462857142857138</v>
+        <v>-0.8462857142857152</v>
       </c>
       <c r="C14" t="n">
         <v>-1.25152380952381</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.843428571428572</v>
+        <v>-0.8434285714285724</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.452000000000002</v>
+        <v>-1.452000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.304380952380952</v>
+        <v>-1.304380952380951</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2866666666666671</v>
+        <v>-0.2866666666666673</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.4827619047619042</v>
+        <v>-0.4827619047619045</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6772857142857139</v>
+        <v>-0.6772857142857135</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2518095238095253</v>
+        <v>0.2518095238095258</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.9129523809523808</v>
+        <v>-0.9129523809523806</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.4669523809523812</v>
+        <v>-0.4669523809523796</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.091285714285714</v>
+        <v>-1.091285714285713</v>
       </c>
       <c r="N14" t="n">
         <v>-0.78</v>
@@ -37187,40 +37187,40 @@
         <v>1922</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9605714285714281</v>
+        <v>-0.9605714285714296</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3786666666666666</v>
+        <v>-0.3786666666666671</v>
       </c>
       <c r="D15" t="n">
         <v>-1.857714285714286</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5391428571428586</v>
+        <v>-0.5391428571428578</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9758095238095235</v>
+        <v>-0.9758095238095231</v>
       </c>
       <c r="G15" t="n">
         <v>-1.543809523809524</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.9113333333333326</v>
+        <v>-0.9113333333333328</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3487142857142858</v>
+        <v>-0.3487142857142853</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.3910476190476176</v>
+        <v>-0.3910476190476171</v>
       </c>
       <c r="K15" t="n">
         <v>1.287047619047619</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0812380952380953</v>
+        <v>-0.08123809523809378</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.4484285714285713</v>
+        <v>-0.4484285714285708</v>
       </c>
       <c r="N15" t="n">
         <v>-0.6</v>
@@ -37231,16 +37231,16 @@
         <v>1923</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.9462857142857136</v>
+        <v>-0.9462857142857152</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.12295238095238</v>
+        <v>-2.122952380952381</v>
       </c>
       <c r="D16" t="n">
         <v>-1.857714285714286</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.753428571428573</v>
+        <v>-1.753428571428572</v>
       </c>
       <c r="F16" t="n">
         <v>-1.118666666666666</v>
@@ -37249,22 +37249,22 @@
         <v>-1.286666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.897047619047618</v>
+        <v>-1.897047619047619</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.291571428571429</v>
+        <v>-1.291571428571428</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.04819047619047469</v>
+        <v>-0.04819047619047418</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.5272380952380951</v>
+        <v>-0.5272380952380947</v>
       </c>
       <c r="L16" t="n">
-        <v>1.591619047619047</v>
+        <v>1.591619047619048</v>
       </c>
       <c r="M16" t="n">
-        <v>1.553</v>
+        <v>1.553000000000001</v>
       </c>
       <c r="N16" t="n">
         <v>-0.8100000000000001</v>
@@ -37275,37 +37275,37 @@
         <v>1924</v>
       </c>
       <c r="B17" t="n">
-        <v>0.583714285714286</v>
+        <v>0.5837142857142845</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3499047619047617</v>
+        <v>0.3499047619047612</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2848571428571439</v>
+        <v>-0.2848571428571444</v>
       </c>
       <c r="E17" t="n">
-        <v>2.24942857142857</v>
+        <v>2.249428571428571</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9458095238095231</v>
+        <v>-0.9458095238095228</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.5566666666666669</v>
+        <v>-0.5566666666666672</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.4527619047619041</v>
+        <v>-0.4527619047619044</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2615714285714287</v>
+        <v>-0.2615714285714282</v>
       </c>
       <c r="J17" t="n">
         <v>1.224666666666668</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6027619047619045</v>
+        <v>0.6027619047619047</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6059047619047614</v>
+        <v>0.6059047619047629</v>
       </c>
       <c r="M17" t="n">
         <v>-1.161285714285713</v>
@@ -37319,40 +37319,40 @@
         <v>1925</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.5448571428571428</v>
+        <v>-0.5448571428571444</v>
       </c>
       <c r="C18" t="n">
         <v>-1.762952380952381</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.170571428571429</v>
+        <v>-1.17057142857143</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.6934285714285728</v>
+        <v>-0.6934285714285721</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.674380952380952</v>
+        <v>-1.674380952380951</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.642380952380952</v>
+        <v>-1.642380952380953</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.7956190476190468</v>
+        <v>-0.795619047619047</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.461571428571429</v>
+        <v>-1.461571428571428</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.503904761904761</v>
+        <v>-1.50390476190476</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.1972380952380955</v>
+        <v>-0.1972380952380952</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.179809523809524</v>
+        <v>-1.179809523809523</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.3469999999999995</v>
+        <v>-0.346999999999999</v>
       </c>
       <c r="N18" t="n">
         <v>-1.08</v>
@@ -37363,40 +37363,40 @@
         <v>1926</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.2248571428571421</v>
+        <v>-0.2248571428571436</v>
       </c>
       <c r="C19" t="n">
         <v>-2.587238095238095</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.564857142857143</v>
+        <v>-1.564857142857144</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5265714285714266</v>
+        <v>0.5265714285714272</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.082952380952381</v>
+        <v>-1.08295238095238</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.5080952380952386</v>
+        <v>-0.5080952380952388</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.189904761904761</v>
+        <v>-0.1899047619047613</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.6701428571428575</v>
+        <v>-0.670142857142857</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.3410476190476177</v>
+        <v>-0.3410476190476172</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.7058095238095241</v>
+        <v>-0.7058095238095239</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.088380952380953</v>
+        <v>-1.088380952380952</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.241285714285714</v>
+        <v>-1.241285714285713</v>
       </c>
       <c r="N19" t="n">
         <v>-0.8100000000000001</v>
@@ -37407,40 +37407,40 @@
         <v>1927</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3465714285714294</v>
+        <v>0.3465714285714278</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3556190476190478</v>
+        <v>0.3556190476190473</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.6219999999999999</v>
+        <v>-0.6220000000000004</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.332000000000001</v>
+        <v>-1.332</v>
       </c>
       <c r="F20" t="n">
         <v>-1.425809523809523</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.150952380952381</v>
+        <v>-2.150952380952382</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.7041904761904753</v>
+        <v>-0.7041904761904755</v>
       </c>
       <c r="I20" t="n">
         <v>-1.527285714285714</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.4267619047619036</v>
+        <v>-0.4267619047619031</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.3486666666666672</v>
+        <v>-0.348666666666667</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.802666666666667</v>
+        <v>-1.802666666666666</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.298428571428571</v>
+        <v>-1.29842857142857</v>
       </c>
       <c r="N20" t="n">
         <v>-0.91</v>
@@ -37451,40 +37451,40 @@
         <v>1928</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2905714285714284</v>
+        <v>-0.2905714285714299</v>
       </c>
       <c r="C21" t="n">
         <v>1.118476190476191</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7122857142857139</v>
+        <v>0.7122857142857134</v>
       </c>
       <c r="E21" t="n">
-        <v>1.059428571428571</v>
+        <v>1.059428571428572</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0941904761904766</v>
+        <v>0.09419047619047685</v>
       </c>
       <c r="G21" t="n">
         <v>-1.116666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.06990476190476105</v>
+        <v>-0.06990476190476132</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.3358571428571432</v>
+        <v>-0.3358571428571427</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.3781904761904747</v>
+        <v>-0.3781904761904742</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.1000952380952384</v>
+        <v>-0.1000952380952381</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2473333333333326</v>
+        <v>0.2473333333333341</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.748428571428571</v>
+        <v>-0.7484285714285706</v>
       </c>
       <c r="N21" t="n">
         <v>0.02</v>
@@ -37495,40 +37495,40 @@
         <v>1929</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.4891428571428565</v>
+        <v>-0.4891428571428581</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.4515238095238092</v>
+        <v>-0.4515238095238097</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3148571428571434</v>
+        <v>-0.3148571428571439</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.6948571428571443</v>
+        <v>-0.6948571428571435</v>
       </c>
       <c r="F22" t="n">
         <v>-1.161523809523809</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09904761904761854</v>
+        <v>0.09904761904761829</v>
       </c>
       <c r="H22" t="n">
         <v>-1.311333333333333</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.8058571428571428</v>
+        <v>-0.8058571428571424</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.8910476190476179</v>
+        <v>-0.8910476190476173</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2584761904761902</v>
+        <v>0.2584761904761904</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.2955238095238104</v>
+        <v>-0.2955238095238088</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.462714285714286</v>
+        <v>-1.462714285714285</v>
       </c>
       <c r="N22" t="n">
         <v>-0.63</v>
@@ -37539,40 +37539,40 @@
         <v>1930</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.074857142857142</v>
+        <v>-2.074857142857144</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.9800952380952381</v>
+        <v>-0.9800952380952387</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.5005714285714288</v>
+        <v>-0.5005714285714292</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.2520000000000014</v>
+        <v>-0.2520000000000007</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.8900952380952377</v>
+        <v>-0.8900952380952375</v>
       </c>
       <c r="G23" t="n">
         <v>-1.02952380952381</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.739904761904761</v>
+        <v>-1.739904761904762</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.891571428571429</v>
+        <v>-0.8915714285714286</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.162476190476189</v>
+        <v>-2.162476190476188</v>
       </c>
       <c r="K23" t="n">
         <v>-1.670095238095238</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.766952380952382</v>
+        <v>-1.76695238095238</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.6484285714285711</v>
+        <v>-0.6484285714285706</v>
       </c>
       <c r="N23" t="n">
         <v>-1.22</v>
@@ -37583,16 +37583,16 @@
         <v>1931</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.489142857142856</v>
+        <v>-1.489142857142858</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.522952380952381</v>
+        <v>-2.522952380952382</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.557714285714286</v>
+        <v>-1.557714285714287</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.239142857142858</v>
+        <v>-1.239142857142857</v>
       </c>
       <c r="F24" t="n">
         <v>-1.190095238095237</v>
@@ -37607,16 +37607,16 @@
         <v>-1.805857142857143</v>
       </c>
       <c r="J24" t="n">
-        <v>-2.276761904761904</v>
+        <v>-2.276761904761903</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3584761904761906</v>
+        <v>0.3584761904761908</v>
       </c>
       <c r="L24" t="n">
-        <v>1.147333333333332</v>
+        <v>1.147333333333334</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.2198571428571426</v>
+        <v>-0.2198571428571421</v>
       </c>
       <c r="N24" t="n">
         <v>-1.15</v>
@@ -37627,40 +37627,40 @@
         <v>1932</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.527714285714285</v>
+        <v>-1.527714285714287</v>
       </c>
       <c r="C25" t="n">
         <v>-2.018666666666667</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.9962857142857148</v>
+        <v>-0.9962857142857153</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.5634285714285723</v>
+        <v>-0.5634285714285715</v>
       </c>
       <c r="F25" t="n">
         <v>-1.400095238095237</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.439523809523809</v>
+        <v>-1.43952380952381</v>
       </c>
       <c r="H25" t="n">
         <v>-1.849904761904761</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.773</v>
+        <v>-1.772999999999999</v>
       </c>
       <c r="J25" t="n">
         <v>-1.129619047619046</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1913333333333327</v>
+        <v>0.1913333333333329</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5659047619047618</v>
+        <v>0.5659047619047632</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.6441428571428572</v>
+        <v>-0.6441428571428567</v>
       </c>
       <c r="N25" t="n">
         <v>-1.05</v>
@@ -37671,19 +37671,19 @@
         <v>1933</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1865714285714292</v>
+        <v>0.1865714285714277</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.4472380952380947</v>
+        <v>-0.4472380952380952</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6608571428571425</v>
+        <v>0.660857142857142</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.4062857142857162</v>
+        <v>-0.4062857142857155</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.800095238095238</v>
+        <v>-1.800095238095237</v>
       </c>
       <c r="G26" t="n">
         <v>-2.268095238095239</v>
@@ -37692,19 +37692,19 @@
         <v>-1.292761904761904</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.9158571428571428</v>
+        <v>-0.9158571428571423</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.2296190476190463</v>
+        <v>-0.2296190476190458</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2199047619047617</v>
+        <v>0.2199047619047619</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.1912380952380965</v>
+        <v>-0.191238095238095</v>
       </c>
       <c r="M26" t="n">
-        <v>0.627285714285714</v>
+        <v>0.6272857142857146</v>
       </c>
       <c r="N26" t="n">
         <v>-0.49</v>
@@ -37715,16 +37715,16 @@
         <v>1934</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.584857142857143</v>
+        <v>-1.584857142857145</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.9615238095238092</v>
+        <v>-0.9615238095238097</v>
       </c>
       <c r="D27" t="n">
         <v>-1.182000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.1477142857142871</v>
+        <v>-0.1477142857142863</v>
       </c>
       <c r="F27" t="n">
         <v>-1.74295238095238</v>
@@ -37736,19 +37736,19 @@
         <v>-1.392761904761904</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.5730000000000002</v>
+        <v>-0.5729999999999996</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.05819047619047473</v>
+        <v>-0.05819047619047422</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.02295238095238109</v>
+        <v>-0.02295238095238084</v>
       </c>
       <c r="L27" t="n">
-        <v>1.937333333333332</v>
+        <v>1.937333333333334</v>
       </c>
       <c r="M27" t="n">
-        <v>3.441571428571429</v>
+        <v>3.44157142857143</v>
       </c>
       <c r="N27" t="n">
         <v>-0.31</v>
@@ -37759,16 +37759,16 @@
         <v>1935</v>
       </c>
       <c r="B28" t="n">
-        <v>1.972285714285715</v>
+        <v>1.972285714285713</v>
       </c>
       <c r="C28" t="n">
         <v>1.152761904761905</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2894285714285709</v>
+        <v>0.2894285714285704</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7508571428571413</v>
+        <v>0.7508571428571421</v>
       </c>
       <c r="F28" t="n">
         <v>-1.685809523809523</v>
@@ -37780,16 +37780,16 @@
         <v>-1.149904761904761</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5587142857142859</v>
+        <v>-0.5587142857142854</v>
       </c>
       <c r="J28" t="n">
         <v>-1.886761904761903</v>
       </c>
       <c r="K28" t="n">
-        <v>0.09133333333333304</v>
+        <v>0.09133333333333329</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.762666666666667</v>
+        <v>-1.762666666666666</v>
       </c>
       <c r="M28" t="n">
         <v>1.64157142857143</v>
@@ -37803,7 +37803,7 @@
         <v>1936</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.4419999999999997</v>
+        <v>-0.4420000000000012</v>
       </c>
       <c r="C29" t="n">
         <v>-1.475809523809523</v>
@@ -37812,28 +37812,28 @@
         <v>-2.382000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3222857142857126</v>
+        <v>0.3222857142857133</v>
       </c>
       <c r="F29" t="n">
         <v>-1.971523809523809</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7252380952380955</v>
+        <v>-0.7252380952380957</v>
       </c>
       <c r="H29" t="n">
         <v>-1.464190476190475</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04128571428571399</v>
+        <v>0.04128571428571449</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.5581904761904752</v>
+        <v>-0.5581904761904747</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7627619047619046</v>
+        <v>0.7627619047619049</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.1483809523809528</v>
+        <v>-0.1483809523809513</v>
       </c>
       <c r="M29" t="n">
         <v>-1.258428571428571</v>
@@ -37847,13 +37847,13 @@
         <v>1937</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.899142857142857</v>
+        <v>-1.899142857142858</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.947238095238094</v>
+        <v>-2.947238095238095</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.139142857142857</v>
+        <v>-1.139142857142858</v>
       </c>
       <c r="E30" t="n">
         <v>-1.204857142857144</v>
@@ -37868,19 +37868,19 @@
         <v>-1.37847619047619</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.4444285714285715</v>
+        <v>-0.444428571428571</v>
       </c>
       <c r="J30" t="n">
         <v>-1.14390476190476</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.3086666666666668</v>
+        <v>-0.3086666666666665</v>
       </c>
       <c r="L30" t="n">
-        <v>1.108761904761904</v>
+        <v>1.108761904761906</v>
       </c>
       <c r="M30" t="n">
-        <v>1.013000000000001</v>
+        <v>1.013000000000002</v>
       </c>
       <c r="N30" t="n">
         <v>-0.99</v>
@@ -37891,10 +37891,10 @@
         <v>1938</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9437142857142859</v>
+        <v>0.9437142857142844</v>
       </c>
       <c r="C31" t="n">
-        <v>1.352761904761905</v>
+        <v>1.352761904761904</v>
       </c>
       <c r="D31" t="n">
         <v>1.532285714285714</v>
@@ -37903,28 +37903,28 @@
         <v>1.60942857142857</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8570476190476197</v>
+        <v>0.8570476190476199</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.5395238095238098</v>
+        <v>-0.5395238095238101</v>
       </c>
       <c r="H31" t="n">
         <v>-2.135619047619047</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.444428571428572</v>
+        <v>-0.4444285714285715</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.2724761904761893</v>
+        <v>-0.2724761904761888</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6484761904761905</v>
+        <v>0.6484761904761908</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5944761904761895</v>
+        <v>0.5944761904761909</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.529857142857143</v>
+        <v>-1.529857142857142</v>
       </c>
       <c r="N31" t="n">
         <v>0.22</v>
@@ -37935,40 +37935,40 @@
         <v>1939</v>
       </c>
       <c r="B32" t="n">
-        <v>-2.056285714285714</v>
+        <v>-2.056285714285715</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.061523809523809</v>
+        <v>-1.06152380952381</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1179999999999996</v>
+        <v>0.1179999999999991</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2651428571428551</v>
+        <v>0.2651428571428558</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.385809523809523</v>
+        <v>-0.3858095238095228</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5033333333333331</v>
+        <v>0.5033333333333329</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.107047619047618</v>
+        <v>-3.107047619047619</v>
       </c>
       <c r="I32" t="n">
         <v>-1.673</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.5581904761904745</v>
+        <v>-0.558190476190474</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.5515238095238099</v>
+        <v>-0.5515238095238095</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1659047619047616</v>
+        <v>0.1659047619047632</v>
       </c>
       <c r="M32" t="n">
-        <v>0.9130000000000003</v>
+        <v>0.9130000000000008</v>
       </c>
       <c r="N32" t="n">
         <v>-0.62</v>
@@ -37979,37 +37979,37 @@
         <v>1940</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1294285714285718</v>
+        <v>0.1294285714285703</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.961523809523809</v>
+        <v>-1.96152380952381</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.153428571428572</v>
+        <v>-1.153428571428573</v>
       </c>
       <c r="E33" t="n">
-        <v>-2.22057142857143</v>
+        <v>-2.220571428571429</v>
       </c>
       <c r="F33" t="n">
         <v>-2.457238095238095</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.8680952380952388</v>
+        <v>-0.868095238095239</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.7784761904761895</v>
+        <v>-0.7784761904761898</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.1301428571428573</v>
+        <v>-0.1301428571428568</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.2439047619047603</v>
+        <v>-0.2439047619047598</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.4658095238095242</v>
+        <v>-0.4658095238095239</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.7055238095238104</v>
+        <v>-0.705523809523809</v>
       </c>
       <c r="M33" t="n">
         <v>1.255857142857144</v>
@@ -38023,19 +38023,19 @@
         <v>1941</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3722857142857151</v>
+        <v>0.3722857142857135</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.4472380952380947</v>
+        <v>-0.4472380952380952</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2465714285714279</v>
+        <v>0.2465714285714274</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.52057142857143</v>
+        <v>-1.520571428571429</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.8143809523809519</v>
+        <v>-0.8143809523809517</v>
       </c>
       <c r="G34" t="n">
         <v>-2.196666666666667</v>
@@ -38047,16 +38047,16 @@
         <v>-2.101571428571428</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.1439047619047609</v>
+        <v>-0.1439047619047604</v>
       </c>
       <c r="K34" t="n">
         <v>-1.408666666666667</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.3055238095238104</v>
+        <v>-0.3055238095238089</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.9584285714285719</v>
+        <v>-0.9584285714285714</v>
       </c>
       <c r="N34" t="n">
         <v>-0.86</v>
@@ -38067,40 +38067,40 @@
         <v>1942</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.770571428571428</v>
+        <v>-1.77057142857143</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.875809523809523</v>
+        <v>-1.875809523809524</v>
       </c>
       <c r="D35" t="n">
         <v>-1.167714285714287</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1762857142857158</v>
+        <v>-0.176285714285715</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.000095238095238</v>
+        <v>-1.000095238095237</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.3252380952380958</v>
+        <v>-0.3252380952380961</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.5784761904761897</v>
+        <v>-0.5784761904761899</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.1015714285714289</v>
+        <v>-0.1015714285714284</v>
       </c>
       <c r="J35" t="n">
-        <v>0.08466666666666788</v>
+        <v>0.08466666666666837</v>
       </c>
       <c r="K35" t="n">
-        <v>0.761333333333333</v>
+        <v>0.7613333333333332</v>
       </c>
       <c r="L35" t="n">
-        <v>0.4073333333333325</v>
+        <v>0.407333333333334</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.8755714285714282</v>
+        <v>-0.8755714285714278</v>
       </c>
       <c r="N35" t="n">
         <v>-0.55</v>
@@ -38111,37 +38111,37 @@
         <v>1943</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.4305714285714285</v>
+        <v>-0.43057142857143</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.8929523809523811</v>
+        <v>-0.8929523809523816</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.8705714285714292</v>
+        <v>-0.8705714285714298</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06228571428571326</v>
+        <v>0.06228571428571402</v>
       </c>
       <c r="F36" t="n">
         <v>-1.817238095238094</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.8566666666666671</v>
+        <v>-0.8566666666666674</v>
       </c>
       <c r="H36" t="n">
         <v>-1.467047619047619</v>
       </c>
       <c r="I36" t="n">
-        <v>-1.961571428571429</v>
+        <v>-1.961571428571428</v>
       </c>
       <c r="J36" t="n">
         <v>-1.532476190476189</v>
       </c>
       <c r="K36" t="n">
-        <v>-1.382952380952381</v>
+        <v>-1.38295238095238</v>
       </c>
       <c r="L36" t="n">
-        <v>0.463047619047618</v>
+        <v>0.4630476190476195</v>
       </c>
       <c r="M36" t="n">
         <v>1.295857142857143</v>
@@ -38155,16 +38155,16 @@
         <v>1944</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3108571428571426</v>
+        <v>0.3108571428571411</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.565809523809523</v>
+        <v>-0.5658095238095235</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.072</v>
+        <v>-1.072000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.2534285714285726</v>
+        <v>-0.2534285714285718</v>
       </c>
       <c r="F37" t="n">
         <v>-1.804380952380952</v>
@@ -38173,19 +38173,19 @@
         <v>-1.343809523809524</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.8399047619047614</v>
+        <v>-0.8399047619047616</v>
       </c>
       <c r="I37" t="n">
         <v>-1.448714285714286</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.191047619047618</v>
+        <v>-1.191047619047617</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.5700952380952385</v>
+        <v>-0.5700952380952382</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.3812380952380958</v>
+        <v>-0.3812380952380942</v>
       </c>
       <c r="M37" t="n">
         <v>-1.719857142857142</v>
@@ -38199,16 +38199,16 @@
         <v>1945</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.5248571428571428</v>
+        <v>-0.5248571428571444</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.9300952380952374</v>
+        <v>-0.930095238095238</v>
       </c>
       <c r="D38" t="n">
         <v>-1.007714285714286</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.6448571428571442</v>
+        <v>-0.6448571428571436</v>
       </c>
       <c r="F38" t="n">
         <v>-2.525809523809523</v>
@@ -38220,19 +38220,19 @@
         <v>-1.875619047619047</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01557142857142857</v>
+        <v>0.01557142857142908</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.4981904761904747</v>
+        <v>-0.4981904761904742</v>
       </c>
       <c r="K38" t="n">
         <v>-1.577238095238096</v>
       </c>
       <c r="L38" t="n">
-        <v>1.097333333333333</v>
+        <v>1.097333333333334</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.969857142857143</v>
+        <v>-1.969857142857142</v>
       </c>
       <c r="N38" t="n">
         <v>-1.06</v>
@@ -38243,37 +38243,37 @@
         <v>1946</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.6248571428571422</v>
+        <v>-0.6248571428571437</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3699047619047623</v>
+        <v>0.3699047619047618</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.6077142857142859</v>
+        <v>-0.6077142857142864</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.3034285714285733</v>
+        <v>-0.3034285714285725</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.368666666666666</v>
+        <v>-0.3686666666666658</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.4652380952380956</v>
+        <v>-0.4652380952380959</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2815238095238105</v>
+        <v>0.2815238095238102</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.6558571428571428</v>
+        <v>-0.6558571428571423</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.1981904761904751</v>
+        <v>-0.1981904761904745</v>
       </c>
       <c r="K39" t="n">
         <v>-1.062952380952381</v>
       </c>
       <c r="L39" t="n">
-        <v>-2.488380952380953</v>
+        <v>-2.488380952380952</v>
       </c>
       <c r="M39" t="n">
         <v>-1.698428571428571</v>
@@ -38287,40 +38287,40 @@
         <v>1947</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.939142857142857</v>
+        <v>-1.939142857142859</v>
       </c>
       <c r="C40" t="n">
         <v>-1.244380952380953</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2077142857142858</v>
+        <v>-0.2077142857142863</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.7320000000000009</v>
+        <v>-0.7320000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6115238095238092</v>
+        <v>-0.611523809523809</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.8980952380952384</v>
+        <v>-0.8980952380952386</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.3084761904761893</v>
+        <v>-0.3084761904761896</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.06014285714285705</v>
+        <v>-0.06014285714285655</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3260952380952397</v>
+        <v>0.3260952380952403</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.7243809523809526</v>
+        <v>-0.7243809523809522</v>
       </c>
       <c r="L40" t="n">
-        <v>0.6216190476190465</v>
+        <v>0.6216190476190481</v>
       </c>
       <c r="M40" t="n">
-        <v>0.5687142857142859</v>
+        <v>0.5687142857142865</v>
       </c>
       <c r="N40" t="n">
         <v>-0.43</v>
@@ -38331,40 +38331,40 @@
         <v>1948</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7137142857142861</v>
+        <v>0.7137142857142845</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.4772380952380954</v>
+        <v>-0.4772380952380958</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4879999999999995</v>
+        <v>0.487999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5205714285714299</v>
+        <v>-0.5205714285714291</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.7443809523809518</v>
+        <v>-0.7443809523809516</v>
       </c>
       <c r="G41" t="n">
         <v>-1.212380952380953</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.165619047619047</v>
+        <v>-0.1656190476190473</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.3458571428571428</v>
+        <v>-0.3458571428571423</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1403809523809537</v>
+        <v>0.1403809523809542</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.538666666666667</v>
+        <v>-0.5386666666666667</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.2926666666666676</v>
+        <v>-0.292666666666666</v>
       </c>
       <c r="M41" t="n">
-        <v>0.4544285714285716</v>
+        <v>0.4544285714285721</v>
       </c>
       <c r="N41" t="n">
         <v>-0.21</v>
@@ -38375,40 +38375,40 @@
         <v>1949</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.743428571428571</v>
+        <v>-1.743428571428572</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9656190476190483</v>
+        <v>0.9656190476190477</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.9262857142857145</v>
+        <v>-0.926285714285715</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.863428571428573</v>
+        <v>-1.863428571428572</v>
       </c>
       <c r="F42" t="n">
         <v>-1.301523809523809</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.6838095238095241</v>
+        <v>-0.6838095238095244</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4772380952380956</v>
+        <v>0.4772380952380954</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.7744285714285716</v>
+        <v>-0.7744285714285711</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.3453333333333318</v>
+        <v>-0.3453333333333313</v>
       </c>
       <c r="K42" t="n">
         <v>1.132761904761905</v>
       </c>
       <c r="L42" t="n">
-        <v>0.06447619047618909</v>
+        <v>0.0644761904761906</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.5027142857142854</v>
+        <v>-0.502714285714285</v>
       </c>
       <c r="N42" t="n">
         <v>-0.46</v>
@@ -38419,40 +38419,40 @@
         <v>1950</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.4148571428571429</v>
+        <v>-0.4148571428571444</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.9486666666666659</v>
+        <v>-0.9486666666666663</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.9405714285714291</v>
+        <v>-0.9405714285714295</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.306285714285716</v>
+        <v>-1.306285714285715</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6984761904761915</v>
+        <v>0.6984761904761917</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.7266666666666671</v>
+        <v>-0.7266666666666673</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.5656190476190469</v>
+        <v>-0.5656190476190471</v>
       </c>
       <c r="I43" t="n">
         <v>-1.003</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.07390476190476088</v>
+        <v>-0.07390476190476036</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5899047619047616</v>
+        <v>0.5899047619047619</v>
       </c>
       <c r="L43" t="n">
-        <v>1.078761904761903</v>
+        <v>1.078761904761905</v>
       </c>
       <c r="M43" t="n">
-        <v>0.3544285714285716</v>
+        <v>0.3544285714285721</v>
       </c>
       <c r="N43" t="n">
         <v>-0.27</v>
@@ -38463,16 +38463,16 @@
         <v>1951</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.130571428571428</v>
+        <v>-1.130571428571429</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.8643809523809526</v>
+        <v>-0.8643809523809531</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.142</v>
+        <v>-0.1420000000000005</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.466285714285716</v>
+        <v>-0.4662857142857152</v>
       </c>
       <c r="F44" t="n">
         <v>-1.488666666666666</v>
@@ -38481,19 +38481,19 @@
         <v>-1.49952380952381</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.1527619047619042</v>
+        <v>-0.1527619047619044</v>
       </c>
       <c r="I44" t="n">
         <v>-1.375857142857143</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1246666666666683</v>
+        <v>0.1246666666666688</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.468666666666667</v>
+        <v>-0.4686666666666667</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.2798095238095247</v>
+        <v>-0.2798095238095232</v>
       </c>
       <c r="M44" t="n">
         <v>-1.789857142857143</v>
@@ -38507,40 +38507,40 @@
         <v>1952</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.630571428571428</v>
+        <v>-1.63057142857143</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.2500952380952372</v>
+        <v>-0.2500952380952377</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.8848571428571432</v>
+        <v>-0.8848571428571438</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1194285714285702</v>
+        <v>0.119428571428571</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.8172380952380947</v>
+        <v>-0.8172380952380944</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.9995238095238097</v>
+        <v>-0.9995238095238099</v>
       </c>
       <c r="H45" t="n">
         <v>-1.081333333333333</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.03300000000000049</v>
+        <v>-0.03299999999999998</v>
       </c>
       <c r="J45" t="n">
-        <v>0.381809523809525</v>
+        <v>0.3818095238095255</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3741904761904757</v>
+        <v>0.374190476190476</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.8655238095238106</v>
+        <v>-0.8655238095238091</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.1184285714285715</v>
+        <v>-0.118428571428571</v>
       </c>
       <c r="N45" t="n">
         <v>-0.48</v>
@@ -38551,40 +38551,40 @@
         <v>1953</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.587714285714285</v>
+        <v>-1.587714285714286</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.807238095238095</v>
+        <v>-1.807238095238096</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.7705714285714288</v>
+        <v>-0.7705714285714294</v>
       </c>
       <c r="E46" t="n">
         <v>-1.152000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.9600952380952376</v>
+        <v>-0.9600952380952373</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.9280952380952388</v>
+        <v>-0.9280952380952391</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.6384761904761896</v>
+        <v>-0.63847619047619</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.07585714285714294</v>
+        <v>-0.07585714285714243</v>
       </c>
       <c r="J46" t="n">
-        <v>0.138952380952382</v>
+        <v>0.1389523809523825</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.5829523809523811</v>
+        <v>-0.5829523809523808</v>
       </c>
       <c r="L46" t="n">
-        <v>1.077333333333332</v>
+        <v>1.077333333333333</v>
       </c>
       <c r="M46" t="n">
-        <v>0.09585714285714328</v>
+        <v>0.09585714285714378</v>
       </c>
       <c r="N46" t="n">
         <v>-0.6</v>
@@ -38595,40 +38595,40 @@
         <v>1954</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06942857142857203</v>
+        <v>0.06942857142857051</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6784761904761903</v>
+        <v>0.6784761904761899</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5437142857142848</v>
+        <v>0.5437142857142844</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.7805714285714304</v>
+        <v>-0.7805714285714297</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1399047619047624</v>
+        <v>0.1399047619047626</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5719047619047612</v>
+        <v>0.5719047619047609</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.5527619047619042</v>
+        <v>-0.5527619047619046</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.7044285714285715</v>
+        <v>-0.7044285714285711</v>
       </c>
       <c r="J47" t="n">
-        <v>0.03895238095238212</v>
+        <v>0.03895238095238263</v>
       </c>
       <c r="K47" t="n">
-        <v>0.6170476190476192</v>
+        <v>0.6170476190476195</v>
       </c>
       <c r="L47" t="n">
-        <v>1.520190476190476</v>
+        <v>1.520190476190477</v>
       </c>
       <c r="M47" t="n">
-        <v>0.1815714285714287</v>
+        <v>0.1815714285714292</v>
       </c>
       <c r="N47" t="n">
         <v>0.19</v>
@@ -38639,19 +38639,19 @@
         <v>1955</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3265714285714288</v>
+        <v>0.3265714285714272</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4499047619047616</v>
+        <v>0.4499047619047611</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2579999999999996</v>
+        <v>0.2579999999999991</v>
       </c>
       <c r="E48" t="n">
-        <v>1.047999999999998</v>
+        <v>1.047999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6827619047619056</v>
+        <v>0.6827619047619058</v>
       </c>
       <c r="G48" t="n">
         <v>-1.413809523809524</v>
@@ -38660,19 +38660,19 @@
         <v>-1.252761904761904</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1527142857142853</v>
+        <v>0.1527142857142858</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4532380952380962</v>
+        <v>0.4532380952380967</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9456190476190477</v>
+        <v>0.9456190476190479</v>
       </c>
       <c r="L48" t="n">
-        <v>0.791619047619047</v>
+        <v>0.7916190476190484</v>
       </c>
       <c r="M48" t="n">
-        <v>0.853000000000001</v>
+        <v>0.8530000000000015</v>
       </c>
       <c r="N48" t="n">
         <v>0.27</v>
@@ -38683,40 +38683,40 @@
         <v>1956</v>
       </c>
       <c r="B49" t="n">
-        <v>1.840857142857143</v>
+        <v>1.840857142857142</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0356190476190475</v>
+        <v>0.035619047619047</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.7420000000000003</v>
+        <v>-0.7420000000000009</v>
       </c>
       <c r="E49" t="n">
         <v>1.833714285714285</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.3315238095238097</v>
+        <v>-0.3315238095238094</v>
       </c>
       <c r="G49" t="n">
-        <v>0.543333333333333</v>
+        <v>0.5433333333333328</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.4241904761904754</v>
+        <v>-0.4241904761904757</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.4472857142857146</v>
+        <v>-0.4472857142857141</v>
       </c>
       <c r="J49" t="n">
-        <v>0.6675238095238105</v>
+        <v>0.667523809523811</v>
       </c>
       <c r="K49" t="n">
-        <v>0.3741904761904757</v>
+        <v>0.374190476190476</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3773333333333326</v>
+        <v>0.3773333333333341</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1101428571428583</v>
+        <v>0.1101428571428588</v>
       </c>
       <c r="N49" t="n">
         <v>0.32</v>
@@ -38727,40 +38727,40 @@
         <v>1957</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5551428571428575</v>
+        <v>0.555142857142856</v>
       </c>
       <c r="C50" t="n">
         <v>1.164190476190476</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9722857142857139</v>
+        <v>0.9722857142857134</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5208571428571415</v>
+        <v>0.5208571428571422</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.474380952380952</v>
+        <v>-0.4743809523809518</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1566666666666673</v>
+        <v>-0.1566666666666676</v>
       </c>
       <c r="H50" t="n">
         <v>-1.33847619047619</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.004428571428571258</v>
+        <v>-0.00442857142857075</v>
       </c>
       <c r="J50" t="n">
-        <v>0.03895238095238237</v>
+        <v>0.03895238095238288</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.8972380952380953</v>
+        <v>-0.8972380952380951</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.3940952380952388</v>
+        <v>-0.3940952380952373</v>
       </c>
       <c r="M50" t="n">
-        <v>-1.289857142857143</v>
+        <v>-1.289857142857142</v>
       </c>
       <c r="N50" t="n">
         <v>-0.11</v>
@@ -38771,40 +38771,40 @@
         <v>1958</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.244857142857142</v>
+        <v>-1.244857142857144</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3927619047619046</v>
+        <v>0.3927619047619041</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4579999999999999</v>
+        <v>0.4579999999999994</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.9362857142857151</v>
+        <v>-0.9362857142857143</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.8172380952380944</v>
+        <v>-0.8172380952380942</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1995238095238097</v>
+        <v>-0.19952380952381</v>
       </c>
       <c r="H51" t="n">
         <v>-1.524190476190476</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.4187142857142859</v>
+        <v>-0.4187142857142853</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.2181904761904751</v>
+        <v>-0.2181904761904746</v>
       </c>
       <c r="K51" t="n">
         <v>1.045619047619049</v>
       </c>
       <c r="L51" t="n">
-        <v>1.605904761904762</v>
+        <v>1.605904761904763</v>
       </c>
       <c r="M51" t="n">
-        <v>0.5387142857142858</v>
+        <v>0.5387142857142864</v>
       </c>
       <c r="N51" t="n">
         <v>-0.11</v>
@@ -38815,40 +38815,40 @@
         <v>1959</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7122857142857149</v>
+        <v>0.7122857142857134</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.2358095238095232</v>
+        <v>-0.2358095238095237</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.1562857142857139</v>
+        <v>-0.1562857142857144</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1934285714285733</v>
+        <v>-0.1934285714285726</v>
       </c>
       <c r="F52" t="n">
         <v>-3.288666666666666</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.5280952380952382</v>
+        <v>-0.5280952380952384</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.352761904761904</v>
+        <v>-0.3527619047619042</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.09014285714285718</v>
+        <v>-0.09014285714285666</v>
       </c>
       <c r="J52" t="n">
-        <v>0.2103809523809534</v>
+        <v>0.2103809523809539</v>
       </c>
       <c r="K52" t="n">
         <v>-1.41152380952381</v>
       </c>
       <c r="L52" t="n">
-        <v>0.6773333333333323</v>
+        <v>0.6773333333333339</v>
       </c>
       <c r="M52" t="n">
-        <v>0.110142857142857</v>
+        <v>0.1101428571428575</v>
       </c>
       <c r="N52" t="n">
         <v>-0.38</v>
@@ -38859,40 +38859,40 @@
         <v>1960</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6979999999999998</v>
+        <v>0.6979999999999984</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.6500952380952378</v>
+        <v>-0.6500952380952383</v>
       </c>
       <c r="D53" t="n">
         <v>-1.47057142857143</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4791428571428583</v>
+        <v>-0.4791428571428575</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.245809523809523</v>
+        <v>-0.2458095238095228</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.4423809523809525</v>
+        <v>-0.4423809523809528</v>
       </c>
       <c r="H53" t="n">
-        <v>0.04723809523809587</v>
+        <v>0.04723809523809562</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.8901428571428577</v>
+        <v>-0.8901428571428571</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.6896190476190467</v>
+        <v>-0.6896190476190461</v>
       </c>
       <c r="K53" t="n">
-        <v>0.5313333333333328</v>
+        <v>0.5313333333333331</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.1126666666666671</v>
+        <v>-0.1126666666666656</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.8512857142857132</v>
+        <v>-0.8512857142857128</v>
       </c>
       <c r="N53" t="n">
         <v>-0.38</v>
@@ -38903,25 +38903,25 @@
         <v>1961</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.6491428571428567</v>
+        <v>-0.6491428571428582</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.4829523809523804</v>
+        <v>-0.4829523809523809</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.503428571428571</v>
+        <v>-1.503428571428572</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2562857142857156</v>
+        <v>-0.2562857142857148</v>
       </c>
       <c r="F54" t="n">
         <v>-1.064380952380952</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.6180952380952386</v>
+        <v>-0.6180952380952388</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.9427619047619041</v>
+        <v>-0.9427619047619044</v>
       </c>
       <c r="I54" t="n">
         <v>-1.123</v>
@@ -38933,10 +38933,10 @@
         <v>2.141333333333333</v>
       </c>
       <c r="L54" t="n">
-        <v>0.7730476190476183</v>
+        <v>0.7730476190476198</v>
       </c>
       <c r="M54" t="n">
-        <v>1.763</v>
+        <v>1.763000000000001</v>
       </c>
       <c r="N54" t="n">
         <v>-0.26</v>
@@ -38947,40 +38947,40 @@
         <v>1962</v>
       </c>
       <c r="B55" t="n">
-        <v>1.336571428571429</v>
+        <v>1.336571428571428</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.3115238095238091</v>
+        <v>-0.3115238095238096</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01085714285714293</v>
+        <v>0.01085714285714242</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.384857142857144</v>
+        <v>-0.3848571428571432</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9356190476190489</v>
+        <v>0.9356190476190491</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2676190476190473</v>
+        <v>0.2676190476190471</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1715238095238103</v>
+        <v>0.1715238095238101</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.05157142857142866</v>
+        <v>-0.05157142857142816</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.1653333333333324</v>
+        <v>-0.1653333333333319</v>
       </c>
       <c r="K55" t="n">
-        <v>1.027047619047618</v>
+        <v>1.027047619047619</v>
       </c>
       <c r="L55" t="n">
-        <v>0.6016190476190465</v>
+        <v>0.6016190476190479</v>
       </c>
       <c r="M55" t="n">
-        <v>0.363</v>
+        <v>0.3630000000000005</v>
       </c>
       <c r="N55" t="n">
         <v>0.32</v>
@@ -38991,40 +38991,40 @@
         <v>1963</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4794285714285711</v>
+        <v>0.4794285714285696</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1884761904761909</v>
+        <v>0.1884761904761904</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.7891428571428573</v>
+        <v>-0.7891428571428578</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.084857142857145</v>
+        <v>-1.084857142857144</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.6072380952380948</v>
+        <v>-0.6072380952380946</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.303809523809524</v>
+        <v>-1.303809523809525</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.071333333333332</v>
+        <v>-1.071333333333333</v>
       </c>
       <c r="I56" t="n">
         <v>-1.465857142857143</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.6939047619047608</v>
+        <v>-0.6939047619047604</v>
       </c>
       <c r="K56" t="n">
-        <v>0.827047619047619</v>
+        <v>0.8270476190476194</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.6698095238095247</v>
+        <v>-0.6698095238095233</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.7369999999999999</v>
+        <v>-0.7369999999999993</v>
       </c>
       <c r="N56" t="n">
         <v>-0.58</v>
@@ -39035,16 +39035,16 @@
         <v>1964</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.444857142857142</v>
+        <v>-1.444857142857144</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.2072380952380942</v>
+        <v>-0.2072380952380947</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.4562857142857141</v>
+        <v>-0.4562857142857147</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.8077142857142869</v>
+        <v>-0.8077142857142862</v>
       </c>
       <c r="F57" t="n">
         <v>-1.257238095238094</v>
@@ -39053,22 +39053,22 @@
         <v>-1.168095238095239</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.1927619047619038</v>
+        <v>-0.1927619047619041</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.4872857142857142</v>
+        <v>-0.4872857142857137</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.5296190476190462</v>
+        <v>-0.5296190476190458</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.1372380952380955</v>
+        <v>-0.1372380952380952</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.1626666666666668</v>
+        <v>-0.1626666666666652</v>
       </c>
       <c r="M57" t="n">
-        <v>0.6844285714285709</v>
+        <v>0.6844285714285715</v>
       </c>
       <c r="N57" t="n">
         <v>-0.51</v>
@@ -39079,40 +39079,40 @@
         <v>1965</v>
       </c>
       <c r="B58" t="n">
-        <v>0.972285714285715</v>
+        <v>0.9722857142857134</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.218666666666666</v>
+        <v>-1.218666666666667</v>
       </c>
       <c r="D58" t="n">
         <v>-1.196285714285715</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7491428571428587</v>
+        <v>-0.7491428571428579</v>
       </c>
       <c r="F58" t="n">
         <v>-1.314380952380952</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.7252380952380955</v>
+        <v>-0.7252380952380957</v>
       </c>
       <c r="H58" t="n">
-        <v>-1.592761904761904</v>
+        <v>-1.592761904761905</v>
       </c>
       <c r="I58" t="n">
-        <v>-1.258714285714286</v>
+        <v>-1.258714285714285</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.1010476190476177</v>
+        <v>-0.1010476190476172</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.9943809523809524</v>
+        <v>-0.9943809523809521</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.6912380952380952</v>
+        <v>-0.6912380952380938</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.1441428571428567</v>
+        <v>-0.1441428571428562</v>
       </c>
       <c r="N58" t="n">
         <v>-0.75</v>
@@ -39123,40 +39123,40 @@
         <v>1966</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.170571428571427</v>
+        <v>-1.170571428571429</v>
       </c>
       <c r="C59" t="n">
         <v>1.038476190476191</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5465714285714282</v>
+        <v>0.5465714285714276</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2365714285714279</v>
+        <v>0.2365714285714287</v>
       </c>
       <c r="F59" t="n">
         <v>-1.828666666666666</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4395238095238097</v>
+        <v>-0.43952380952381</v>
       </c>
       <c r="H59" t="n">
         <v>-1.135619047619047</v>
       </c>
       <c r="I59" t="n">
-        <v>-1.301571428571429</v>
+        <v>-1.301571428571428</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.7010476190476176</v>
+        <v>-0.701047619047617</v>
       </c>
       <c r="K59" t="n">
-        <v>0.2056190476190469</v>
+        <v>0.2056190476190472</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.4340952380952383</v>
+        <v>-0.4340952380952367</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.9155714285714279</v>
+        <v>-0.9155714285714274</v>
       </c>
       <c r="N59" t="n">
         <v>-0.49</v>
@@ -39167,40 +39167,40 @@
         <v>1967</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.042</v>
+        <v>-1.042000000000002</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4615238095238087</v>
+        <v>-0.4615238095238092</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01799999999999916</v>
+        <v>0.01799999999999865</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1937142857142844</v>
+        <v>0.1937142857142852</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.5715238095238091</v>
+        <v>-0.5715238095238089</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.63952380952381</v>
+        <v>-0.6395238095238103</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.535619047619047</v>
+        <v>-0.5356190476190472</v>
       </c>
       <c r="I60" t="n">
-        <v>0.6984285714285713</v>
+        <v>0.6984285714285718</v>
       </c>
       <c r="J60" t="n">
-        <v>-1.029619047619046</v>
+        <v>-1.029619047619045</v>
       </c>
       <c r="K60" t="n">
-        <v>0.9056190476190474</v>
+        <v>0.9056190476190478</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.4326666666666674</v>
+        <v>-0.4326666666666658</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.228428571428571</v>
+        <v>-0.2284285714285705</v>
       </c>
       <c r="N60" t="n">
         <v>-0.26</v>
@@ -39211,28 +39211,28 @@
         <v>1968</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.7834285714285711</v>
+        <v>-0.7834285714285727</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.1029523809523804</v>
+        <v>-0.1029523809523809</v>
       </c>
       <c r="D61" t="n">
-        <v>1.890857142857143</v>
+        <v>1.890857142857142</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9334285714285728</v>
+        <v>-0.9334285714285721</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.298666666666666</v>
+        <v>-0.2986666666666657</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.7809523809523812</v>
+        <v>-0.7809523809523815</v>
       </c>
       <c r="H61" t="n">
-        <v>-1.334190476190475</v>
+        <v>-1.334190476190476</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.1144285714285717</v>
+        <v>-0.1144285714285712</v>
       </c>
       <c r="J61" t="n">
         <v>-1.042476190476189</v>
@@ -39241,10 +39241,10 @@
         <v>-1.050095238095238</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.2469523809523818</v>
+        <v>-0.2469523809523803</v>
       </c>
       <c r="M61" t="n">
-        <v>-1.385571428571429</v>
+        <v>-1.385571428571428</v>
       </c>
       <c r="N61" t="n">
         <v>-0.52</v>
@@ -39255,19 +39255,19 @@
         <v>1969</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.7405714285714282</v>
+        <v>-0.7405714285714298</v>
       </c>
       <c r="C62" t="n">
         <v>-1.631523809523809</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2479999999999996</v>
+        <v>0.2479999999999991</v>
       </c>
       <c r="E62" t="n">
         <v>-1.162000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.284380952380952</v>
+        <v>-1.284380952380951</v>
       </c>
       <c r="G62" t="n">
         <v>-1.538095238095239</v>
@@ -39276,19 +39276,19 @@
         <v>-1.219904761904761</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.3430000000000005</v>
+        <v>-0.343</v>
       </c>
       <c r="J62" t="n">
-        <v>0.6432380952380965</v>
+        <v>0.6432380952380969</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.8215238095238099</v>
+        <v>-0.8215238095238097</v>
       </c>
       <c r="L62" t="n">
-        <v>1.238761904761905</v>
+        <v>1.238761904761906</v>
       </c>
       <c r="M62" t="n">
-        <v>1.428714285714286</v>
+        <v>1.428714285714287</v>
       </c>
       <c r="N62" t="n">
         <v>-0.43</v>
@@ -39299,40 +39299,40 @@
         <v>1970</v>
       </c>
       <c r="B63" t="n">
-        <v>1.130857142857143</v>
+        <v>1.130857142857142</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.07438095238095142</v>
+        <v>-0.07438095238095192</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2337142857142856</v>
+        <v>0.2337142857142851</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7537142857142847</v>
+        <v>0.7537142857142854</v>
       </c>
       <c r="F63" t="n">
         <v>-1.527238095238095</v>
       </c>
       <c r="G63" t="n">
-        <v>0.01904761904761847</v>
+        <v>0.01904761904761822</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4800952380952389</v>
+        <v>0.4800952380952386</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1284285714285713</v>
+        <v>0.1284285714285718</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.185333333333332</v>
+        <v>-0.1853333333333314</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2070476190476191</v>
+        <v>0.2070476190476193</v>
       </c>
       <c r="L63" t="n">
-        <v>0.8244761904761896</v>
+        <v>0.8244761904761911</v>
       </c>
       <c r="M63" t="n">
-        <v>1.043</v>
+        <v>1.043000000000001</v>
       </c>
       <c r="N63" t="n">
         <v>0.25</v>
@@ -39343,40 +39343,40 @@
         <v>1971</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3451428571428577</v>
+        <v>0.3451428571428562</v>
       </c>
       <c r="C64" t="n">
-        <v>1.454190476190477</v>
+        <v>1.454190476190476</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9479999999999994</v>
+        <v>0.9479999999999988</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8094285714285699</v>
+        <v>0.8094285714285707</v>
       </c>
       <c r="F64" t="n">
-        <v>0.401333333333334</v>
+        <v>0.4013333333333343</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9619047619047613</v>
+        <v>0.961904761904761</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.3913333333333325</v>
+        <v>-0.3913333333333328</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3427142857142856</v>
+        <v>0.3427142857142861</v>
       </c>
       <c r="J64" t="n">
-        <v>0.08609523809523927</v>
+        <v>0.08609523809523978</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.09295238095238036</v>
+        <v>-0.09295238095238011</v>
       </c>
       <c r="L64" t="n">
-        <v>0.3959047619047616</v>
+        <v>0.3959047619047631</v>
       </c>
       <c r="M64" t="n">
-        <v>0.7287142857142861</v>
+        <v>0.7287142857142866</v>
       </c>
       <c r="N64" t="n">
         <v>0.5</v>
@@ -39387,37 +39387,37 @@
         <v>1972</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.6834285714285713</v>
+        <v>-0.6834285714285728</v>
       </c>
       <c r="C65" t="n">
         <v>-1.102952380952381</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7337142857142857</v>
+        <v>0.7337142857142851</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2379999999999985</v>
+        <v>0.2379999999999993</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7700952380952375</v>
+        <v>-0.7700952380952373</v>
       </c>
       <c r="G65" t="n">
         <v>-1.752380952380953</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.4056190476190467</v>
+        <v>-0.405619047619047</v>
       </c>
       <c r="I65" t="n">
         <v>-1.414428571428571</v>
       </c>
       <c r="J65" t="n">
-        <v>0.8432380952380966</v>
+        <v>0.843238095238097</v>
       </c>
       <c r="K65" t="n">
-        <v>0.4070476190476186</v>
+        <v>0.4070476190476189</v>
       </c>
       <c r="L65" t="n">
-        <v>1.12447619047619</v>
+        <v>1.124476190476191</v>
       </c>
       <c r="M65" t="n">
         <v>-1.499857142857142</v>
@@ -39431,40 +39431,40 @@
         <v>1973</v>
       </c>
       <c r="B66" t="n">
-        <v>0.002285714285714541</v>
+        <v>0.002285714285713019</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9541904761904766</v>
+        <v>0.954190476190476</v>
       </c>
       <c r="D66" t="n">
-        <v>0.005142857142857338</v>
+        <v>0.00514285714285683</v>
       </c>
       <c r="E66" t="n">
-        <v>0.02371428571428399</v>
+        <v>0.02371428571428475</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.6272380952380947</v>
+        <v>-0.6272380952380944</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1190476190476189</v>
+        <v>0.1190476190476186</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.8341904761904753</v>
+        <v>-0.8341904761904756</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.7001428571428574</v>
+        <v>-0.7001428571428568</v>
       </c>
       <c r="J66" t="n">
-        <v>0.3860952380952392</v>
+        <v>0.3860952380952397</v>
       </c>
       <c r="K66" t="n">
-        <v>0.4641904761904761</v>
+        <v>0.4641904761904763</v>
       </c>
       <c r="L66" t="n">
-        <v>0.5530476190476187</v>
+        <v>0.5530476190476202</v>
       </c>
       <c r="M66" t="n">
-        <v>0.6858571428571436</v>
+        <v>0.6858571428571442</v>
       </c>
       <c r="N66" t="n">
         <v>0.09</v>
@@ -39475,37 +39475,37 @@
         <v>1974</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.5834285714285714</v>
+        <v>-0.5834285714285729</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9399047619047626</v>
+        <v>0.939904761904762</v>
       </c>
       <c r="D67" t="n">
         <v>-1.352</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.1891428571428586</v>
+        <v>-0.1891428571428579</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.2129523809523806</v>
+        <v>-0.2129523809523803</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4380952380952386</v>
+        <v>-0.4380952380952388</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.09133333333333253</v>
+        <v>-0.09133333333333279</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.7572857142857146</v>
+        <v>-0.757285714285714</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.01390476190476063</v>
+        <v>-0.01390476190476012</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.3500952380952381</v>
+        <v>-0.3500952380952378</v>
       </c>
       <c r="L67" t="n">
-        <v>1.267333333333333</v>
+        <v>1.267333333333335</v>
       </c>
       <c r="M67" t="n">
         <v>1.785857142857143</v>
@@ -39519,40 +39519,40 @@
         <v>1975</v>
       </c>
       <c r="B68" t="n">
-        <v>1.388</v>
+        <v>1.387999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1827619047619053</v>
+        <v>0.1827619047619048</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6765714285714282</v>
+        <v>0.6765714285714276</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8965714285714276</v>
+        <v>0.8965714285714282</v>
       </c>
       <c r="F68" t="n">
-        <v>0.02990476190476242</v>
+        <v>0.02990476190476267</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.9952380952380958</v>
+        <v>-0.995238095238096</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.5056190476190469</v>
+        <v>-0.5056190476190471</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.3287142857142857</v>
+        <v>-0.3287142857142852</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.07104761904761782</v>
+        <v>-0.07104761904761732</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.09295238095238061</v>
+        <v>-0.09295238095238036</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.7469523809523813</v>
+        <v>-0.7469523809523798</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.9712857142857132</v>
+        <v>-0.9712857142857126</v>
       </c>
       <c r="N68" t="n">
         <v>-0.04</v>
@@ -39563,40 +39563,40 @@
         <v>1976</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.611999999999999</v>
+        <v>-1.612000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>-2.845809523809524</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04799999999999979</v>
+        <v>0.04799999999999928</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.127714285714287</v>
+        <v>-0.1277142857142863</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6929523809523802</v>
+        <v>-0.69295238095238</v>
       </c>
       <c r="G69" t="n">
         <v>-1.232380952380953</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.5427619047619038</v>
+        <v>-0.542761904761904</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.6230000000000003</v>
+        <v>-0.6229999999999999</v>
       </c>
       <c r="J69" t="n">
-        <v>-1.208190476190475</v>
+        <v>-1.208190476190474</v>
       </c>
       <c r="K69" t="n">
         <v>-1.344380952380952</v>
       </c>
       <c r="L69" t="n">
-        <v>-1.541238095238096</v>
+        <v>-1.541238095238094</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.6941428571428568</v>
+        <v>-0.6941428571428564</v>
       </c>
       <c r="N69" t="n">
         <v>-1.03</v>
@@ -39607,40 +39607,40 @@
         <v>1977</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.934857142857142</v>
+        <v>-1.934857142857143</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.1829523809523802</v>
+        <v>-0.1829523809523807</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2394285714285712</v>
+        <v>0.2394285714285707</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.05485714285714494</v>
+        <v>-0.05485714285714417</v>
       </c>
       <c r="F70" t="n">
         <v>-2.29295238095238</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7180952380952382</v>
+        <v>-0.7180952380952385</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.8141904761904752</v>
+        <v>-0.8141904761904755</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.7515714285714287</v>
+        <v>-0.7515714285714282</v>
       </c>
       <c r="J70" t="n">
         <v>-2.336761904761903</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.4015238095238099</v>
+        <v>-0.4015238095238097</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.7983809523809529</v>
+        <v>-0.7983809523809514</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.9655714285714281</v>
+        <v>-0.9655714285714276</v>
       </c>
       <c r="N70" t="n">
         <v>-0.92</v>
@@ -39651,7 +39651,7 @@
         <v>1978</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5794285714285711</v>
+        <v>0.5794285714285695</v>
       </c>
       <c r="C71" t="n">
         <v>1.245619047619047</v>
@@ -39660,31 +39660,31 @@
         <v>1.268</v>
       </c>
       <c r="E71" t="n">
-        <v>1.173714285714284</v>
+        <v>1.173714285714285</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.4929523809523802</v>
+        <v>-0.49295238095238</v>
       </c>
       <c r="G71" t="n">
         <v>-1.603809523809524</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.09990476190476118</v>
+        <v>-0.09990476190476143</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3341428571428567</v>
+        <v>0.3341428571428572</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.5367619047619038</v>
+        <v>-0.5367619047619032</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.6158095238095237</v>
+        <v>-0.6158095238095235</v>
       </c>
       <c r="L71" t="n">
-        <v>0.4873333333333326</v>
+        <v>0.4873333333333341</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.3084285714285703</v>
+        <v>-0.3084285714285698</v>
       </c>
       <c r="N71" t="n">
         <v>0.12</v>
@@ -39695,40 +39695,40 @@
         <v>1979</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4508571428571437</v>
+        <v>0.4508571428571422</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.5829523809523808</v>
+        <v>-0.5829523809523813</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.4748571428571431</v>
+        <v>-0.4748571428571436</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2834285714285727</v>
+        <v>-0.2834285714285719</v>
       </c>
       <c r="F72" t="n">
         <v>-1.39295238095238</v>
       </c>
       <c r="G72" t="n">
-        <v>0.4390476190476186</v>
+        <v>0.4390476190476184</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1429523809523813</v>
+        <v>0.1429523809523811</v>
       </c>
       <c r="I72" t="n">
-        <v>-1.180142857142858</v>
+        <v>-1.180142857142857</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.2367619047619036</v>
+        <v>-0.236761904761903</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.5872380952380956</v>
+        <v>-0.5872380952380952</v>
       </c>
       <c r="L72" t="n">
-        <v>0.6444761904761899</v>
+        <v>0.6444761904761914</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.008428571428570564</v>
+        <v>-0.008428571428570055</v>
       </c>
       <c r="N72" t="n">
         <v>-0.26</v>
@@ -39739,40 +39739,40 @@
         <v>1980</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.4491428571428569</v>
+        <v>-0.4491428571428585</v>
       </c>
       <c r="C73" t="n">
         <v>-1.082952380952381</v>
       </c>
       <c r="D73" t="n">
-        <v>-1.732</v>
+        <v>-1.732000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9277142857142869</v>
+        <v>-0.9277142857142862</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.2215238095238085</v>
+        <v>-0.2215238095238082</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6466666666666667</v>
+        <v>-0.6466666666666671</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.8141904761904752</v>
+        <v>-0.8141904761904755</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.3087142857142857</v>
+        <v>-0.3087142857142852</v>
       </c>
       <c r="J73" t="n">
-        <v>0.4060952380952393</v>
+        <v>0.4060952380952398</v>
       </c>
       <c r="K73" t="n">
-        <v>0.9556190476190477</v>
+        <v>0.9556190476190479</v>
       </c>
       <c r="L73" t="n">
-        <v>-1.312666666666668</v>
+        <v>-1.312666666666666</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.537</v>
+        <v>-0.5369999999999996</v>
       </c>
       <c r="N73" t="n">
         <v>-0.5600000000000001</v>
@@ -39783,40 +39783,40 @@
         <v>1981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9651428571428576</v>
+        <v>0.9651428571428562</v>
       </c>
       <c r="C74" t="n">
-        <v>0.07419047619047602</v>
+        <v>0.0741904761904755</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7251428571428568</v>
+        <v>0.7251428571428562</v>
       </c>
       <c r="E74" t="n">
         <v>1.215142857142856</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6643809523809515</v>
+        <v>-0.6643809523809513</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1323809523809525</v>
+        <v>-0.1323809523809528</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.514190476190475</v>
+        <v>-0.5141904761904753</v>
       </c>
       <c r="I74" t="n">
-        <v>-1.794428571428572</v>
+        <v>-1.794428571428571</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.6796190476190463</v>
+        <v>-0.6796190476190459</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.3586666666666667</v>
+        <v>-0.3586666666666665</v>
       </c>
       <c r="L74" t="n">
-        <v>-0.1555238095238108</v>
+        <v>-0.1555238095238093</v>
       </c>
       <c r="M74" t="n">
-        <v>0.7344285714285722</v>
+        <v>0.7344285714285727</v>
       </c>
       <c r="N74" t="n">
         <v>-0.05</v>
@@ -39827,37 +39827,37 @@
         <v>1982</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.1491428571428562</v>
+        <v>-0.1491428571428577</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8884761904761908</v>
+        <v>0.8884761904761902</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0394285714285714</v>
+        <v>0.03942857142857089</v>
       </c>
       <c r="E75" t="n">
         <v>-1.499142857142858</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.3786666666666663</v>
+        <v>-0.3786666666666661</v>
       </c>
       <c r="G75" t="n">
         <v>-1.318095238095239</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.9141904761904753</v>
+        <v>-0.9141904761904757</v>
       </c>
       <c r="I75" t="n">
-        <v>0.4198571428571429</v>
+        <v>0.4198571428571434</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.808190476190475</v>
+        <v>-0.8081904761904745</v>
       </c>
       <c r="K75" t="n">
         <v>-1.387238095238095</v>
       </c>
       <c r="L75" t="n">
-        <v>0.6730476190476181</v>
+        <v>0.6730476190476197</v>
       </c>
       <c r="M75" t="n">
         <v>-1.551285714285714</v>
@@ -39871,37 +39871,37 @@
         <v>1983</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.506285714285713</v>
+        <v>-1.506285714285715</v>
       </c>
       <c r="C76" t="n">
         <v>-1.840095238095238</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.3177142857142857</v>
+        <v>-0.3177142857142862</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9705714285714302</v>
+        <v>-0.9705714285714294</v>
       </c>
       <c r="F76" t="n">
         <v>-1.278666666666666</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7466666666666669</v>
+        <v>-0.7466666666666671</v>
       </c>
       <c r="H76" t="n">
         <v>-1.22847619047619</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.2372857142857145</v>
+        <v>-0.237285714285714</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.4367619047619036</v>
+        <v>-0.4367619047619031</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.1729523809523814</v>
+        <v>-0.1729523809523812</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.2983809523809531</v>
+        <v>-0.2983809523809516</v>
       </c>
       <c r="M76" t="n">
         <v>-1.322714285714285</v>
@@ -39915,40 +39915,40 @@
         <v>1984</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.920571428571427</v>
+        <v>-1.920571428571429</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.868666666666666</v>
+        <v>-0.8686666666666666</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2680000000000002</v>
+        <v>0.2679999999999997</v>
       </c>
       <c r="E77" t="n">
-        <v>0.08657142857142677</v>
+        <v>0.08657142857142754</v>
       </c>
       <c r="F77" t="n">
         <v>-1.378666666666666</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7104761904761902</v>
+        <v>0.7104761904761899</v>
       </c>
       <c r="H77" t="n">
-        <v>9.523809523897293e-05</v>
+        <v>9.523809523871916e-05</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3912857142857141</v>
+        <v>0.3912857142857146</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.3510476190476179</v>
+        <v>-0.3510476190476174</v>
       </c>
       <c r="K77" t="n">
-        <v>0.06990476190476207</v>
+        <v>0.06990476190476233</v>
       </c>
       <c r="L77" t="n">
-        <v>1.215904761904762</v>
+        <v>1.215904761904763</v>
       </c>
       <c r="M77" t="n">
-        <v>0.6344285714285712</v>
+        <v>0.6344285714285718</v>
       </c>
       <c r="N77" t="n">
         <v>-0.1</v>
@@ -39959,40 +39959,40 @@
         <v>1985</v>
       </c>
       <c r="B78" t="n">
-        <v>1.322285714285715</v>
+        <v>1.322285714285713</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3027619047619053</v>
+        <v>0.3027619047619048</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.3748571428571427</v>
+        <v>-0.3748571428571432</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7437142857142841</v>
+        <v>0.7437142857142849</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.5500952380952374</v>
+        <v>-0.5500952380952372</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6676190476190474</v>
+        <v>0.6676190476190472</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4572380952380958</v>
+        <v>0.4572380952380955</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.423</v>
+        <v>-0.4229999999999995</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3775238095238111</v>
+        <v>0.3775238095238116</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.5729523809523808</v>
+        <v>-0.5729523809523805</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.4126666666666678</v>
+        <v>-0.4126666666666662</v>
       </c>
       <c r="M78" t="n">
-        <v>0.4630000000000005</v>
+        <v>0.463000000000001</v>
       </c>
       <c r="N78" t="n">
         <v>0.17</v>
@@ -40003,40 +40003,40 @@
         <v>1986</v>
       </c>
       <c r="B79" t="n">
-        <v>1.222285714285715</v>
+        <v>1.222285714285713</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.325809523809523</v>
+        <v>-0.3258095238095236</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.3891428571428572</v>
+        <v>-0.3891428571428577</v>
       </c>
       <c r="E79" t="n">
         <v>1.272285714285713</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2643809523809519</v>
+        <v>-0.2643809523809517</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2752380952380956</v>
+        <v>-0.2752380952380959</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.8284761904761899</v>
+        <v>-0.8284761904761903</v>
       </c>
       <c r="I79" t="n">
         <v>-1.480142857142857</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.4796190476190463</v>
+        <v>-0.4796190476190458</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.1300952380952382</v>
+        <v>-0.130095238095238</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1016190476190475</v>
+        <v>0.101619047619049</v>
       </c>
       <c r="M79" t="n">
-        <v>0.1058571428571428</v>
+        <v>0.1058571428571433</v>
       </c>
       <c r="N79" t="n">
         <v>-0.12</v>
@@ -40047,40 +40047,40 @@
         <v>1987</v>
       </c>
       <c r="B80" t="n">
-        <v>1.093714285714286</v>
+        <v>1.093714285714284</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.5972380952380953</v>
+        <v>-0.5972380952380958</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.546285714285714</v>
+        <v>-1.546285714285715</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1705714285714305</v>
+        <v>-0.1705714285714297</v>
       </c>
       <c r="F80" t="n">
-        <v>0.03561904761904801</v>
+        <v>0.03561904761904826</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.216666666666667</v>
+        <v>-0.2166666666666673</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.1841904761904754</v>
+        <v>-0.1841904761904757</v>
       </c>
       <c r="I80" t="n">
-        <v>1.007</v>
+        <v>1.007000000000001</v>
       </c>
       <c r="J80" t="n">
-        <v>-0.1067619047619038</v>
+        <v>-0.1067619047619033</v>
       </c>
       <c r="K80" t="n">
-        <v>0.1713333333333329</v>
+        <v>0.1713333333333331</v>
       </c>
       <c r="L80" t="n">
-        <v>0.688761904761904</v>
+        <v>0.6887619047619056</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.2069999999999997</v>
+        <v>-0.2069999999999992</v>
       </c>
       <c r="N80" t="n">
         <v>-0</v>
@@ -40091,28 +40091,28 @@
         <v>1988</v>
       </c>
       <c r="B81" t="n">
-        <v>0.280857142857144</v>
+        <v>0.2808571428571425</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.3672380952380944</v>
+        <v>-0.3672380952380949</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.8162857142857146</v>
+        <v>-0.8162857142857151</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.969142857142859</v>
+        <v>-0.9691428571428583</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.820095238095238</v>
+        <v>-0.8200952380952378</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3690476190476191</v>
+        <v>0.3690476190476189</v>
       </c>
       <c r="H81" t="n">
-        <v>0.687238095238096</v>
+        <v>0.6872380952380956</v>
       </c>
       <c r="I81" t="n">
-        <v>0.3641428571428573</v>
+        <v>0.3641428571428578</v>
       </c>
       <c r="J81" t="n">
         <v>1.193238095238097</v>
@@ -40121,7 +40121,7 @@
         <v>1.02847619047619</v>
       </c>
       <c r="L81" t="n">
-        <v>1.17447619047619</v>
+        <v>1.174476190476192</v>
       </c>
       <c r="M81" t="n">
         <v>1.907285714285715</v>
@@ -40135,40 +40135,40 @@
         <v>1989</v>
       </c>
       <c r="B82" t="n">
-        <v>1.195142857142858</v>
+        <v>1.195142857142856</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.5529523809523796</v>
+        <v>-0.5529523809523802</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7551428571428573</v>
+        <v>0.7551428571428568</v>
       </c>
       <c r="E82" t="n">
-        <v>0.432285714285713</v>
+        <v>0.4322857142857138</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.7200952380952378</v>
+        <v>-0.7200952380952376</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02619047619047597</v>
+        <v>0.02619047619047572</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.5270476190476181</v>
+        <v>-0.5270476190476183</v>
       </c>
       <c r="I82" t="n">
-        <v>0.09271428571428533</v>
+        <v>0.09271428571428585</v>
       </c>
       <c r="J82" t="n">
-        <v>0.7789523809523813</v>
+        <v>0.7789523809523818</v>
       </c>
       <c r="K82" t="n">
-        <v>0.7999047619047615</v>
+        <v>0.7999047619047618</v>
       </c>
       <c r="L82" t="n">
-        <v>1.060190476190476</v>
+        <v>1.060190476190477</v>
       </c>
       <c r="M82" t="n">
-        <v>-0.421285714285714</v>
+        <v>-0.4212857142857135</v>
       </c>
       <c r="N82" t="n">
         <v>0.24</v>
@@ -40179,40 +40179,40 @@
         <v>1990</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2522857142857151</v>
+        <v>0.2522857142857135</v>
       </c>
       <c r="C83" t="n">
         <v>1.81847619047619</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9979999999999996</v>
+        <v>0.9979999999999991</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5451428571428559</v>
+        <v>0.5451428571428567</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3656190476190481</v>
+        <v>0.3656190476190483</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1595238095238098</v>
+        <v>-0.1595238095238101</v>
       </c>
       <c r="H83" t="n">
-        <v>0.03009523809523884</v>
+        <v>0.03009523809523859</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.2072857142857144</v>
+        <v>-0.2072857142857139</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.4496190476190462</v>
+        <v>-0.4496190476190457</v>
       </c>
       <c r="K83" t="n">
-        <v>0.3856190476190474</v>
+        <v>0.3856190476190476</v>
       </c>
       <c r="L83" t="n">
-        <v>-0.1112380952380964</v>
+        <v>-0.1112380952380949</v>
       </c>
       <c r="M83" t="n">
-        <v>0.4501428571428571</v>
+        <v>0.4501428571428576</v>
       </c>
       <c r="N83" t="n">
         <v>0.33</v>
@@ -40223,40 +40223,40 @@
         <v>1991</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.6591428571428563</v>
+        <v>-0.6591428571428578</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.7500952380952377</v>
+        <v>-0.7500952380952383</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.2277142857142859</v>
+        <v>-0.2277142857142864</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.6934285714285728</v>
+        <v>-0.6934285714285721</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5743809523809517</v>
+        <v>-0.5743809523809514</v>
       </c>
       <c r="G84" t="n">
         <v>-1.428095238095239</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.9527619047619041</v>
+        <v>-0.9527619047619044</v>
       </c>
       <c r="I84" t="n">
-        <v>0.4241428571428573</v>
+        <v>0.4241428571428578</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.1324761904761889</v>
+        <v>-0.1324761904761884</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.3258095238095233</v>
+        <v>-0.325809523809523</v>
       </c>
       <c r="L84" t="n">
-        <v>-1.651238095238096</v>
+        <v>-1.651238095238095</v>
       </c>
       <c r="M84" t="n">
-        <v>-1.304142857142857</v>
+        <v>-1.304142857142856</v>
       </c>
       <c r="N84" t="n">
         <v>-0.6899999999999999</v>
@@ -40267,7 +40267,7 @@
         <v>1992</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.5019999999999994</v>
+        <v>-0.5020000000000009</v>
       </c>
       <c r="C85" t="n">
         <v>-1.42152380952381</v>
@@ -40276,7 +40276,7 @@
         <v>-1.684857142857143</v>
       </c>
       <c r="E85" t="n">
-        <v>-2.237714285714287</v>
+        <v>-2.237714285714286</v>
       </c>
       <c r="F85" t="n">
         <v>-2.50295238095238</v>
@@ -40285,7 +40285,7 @@
         <v>-1.428095238095239</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.3099047619047613</v>
+        <v>-0.3099047619047615</v>
       </c>
       <c r="I85" t="n">
         <v>-2.018714285714286</v>
@@ -40297,10 +40297,10 @@
         <v>-1.582952380952381</v>
       </c>
       <c r="L85" t="n">
-        <v>-0.0369523809523817</v>
+        <v>-0.03695238095238018</v>
       </c>
       <c r="M85" t="n">
-        <v>-1.575571428571429</v>
+        <v>-1.575571428571428</v>
       </c>
       <c r="N85" t="n">
         <v>-1.47</v>
@@ -40311,40 +40311,40 @@
         <v>1993</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.487714285714284</v>
+        <v>-1.487714285714286</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.950095238095237</v>
+        <v>-1.950095238095238</v>
       </c>
       <c r="D86" t="n">
-        <v>-1.827714285714285</v>
+        <v>-1.827714285714286</v>
       </c>
       <c r="E86" t="n">
         <v>-1.48057142857143</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5600952380952376</v>
+        <v>-0.5600952380952374</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4719047619047615</v>
+        <v>0.4719047619047613</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.05276190476190428</v>
+        <v>-0.05276190476190453</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.6901428571428576</v>
+        <v>-0.6901428571428571</v>
       </c>
       <c r="J86" t="n">
         <v>-1.475333333333332</v>
       </c>
       <c r="K86" t="n">
-        <v>0.6884761904761907</v>
+        <v>0.6884761904761909</v>
       </c>
       <c r="L86" t="n">
-        <v>-1.594095238095239</v>
+        <v>-1.594095238095237</v>
       </c>
       <c r="M86" t="n">
-        <v>-1.589857142857143</v>
+        <v>-1.589857142857142</v>
       </c>
       <c r="N86" t="n">
         <v>-0.96</v>
@@ -40355,40 +40355,40 @@
         <v>1994</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1408571428571435</v>
+        <v>0.1408571428571419</v>
       </c>
       <c r="C87" t="n">
-        <v>0.549904761904763</v>
+        <v>0.5499047619047625</v>
       </c>
       <c r="D87" t="n">
         <v>-1.142000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8065714285714272</v>
+        <v>0.8065714285714279</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.2743809523809514</v>
+        <v>-0.2743809523809512</v>
       </c>
       <c r="G87" t="n">
         <v>-1.356666666666667</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.7670476190476183</v>
+        <v>-0.7670476190476185</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3384285714285711</v>
+        <v>0.3384285714285716</v>
       </c>
       <c r="J87" t="n">
         <v>-1.318190476190475</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.9115238095238097</v>
+        <v>-0.9115238095238095</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.3083809523809534</v>
+        <v>-0.3083809523809519</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1530000000000002</v>
+        <v>0.1530000000000007</v>
       </c>
       <c r="N87" t="n">
         <v>-0.34</v>
@@ -40399,40 +40399,40 @@
         <v>1995</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.3019999999999996</v>
+        <v>-0.3020000000000011</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.1500952380952378</v>
+        <v>-0.1500952380952383</v>
       </c>
       <c r="D88" t="n">
-        <v>0.07228571428571431</v>
+        <v>0.07228571428571381</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4494285714285695</v>
+        <v>0.4494285714285703</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2256190476190488</v>
+        <v>0.225619047619049</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.028095238095238</v>
+        <v>-1.028095238095239</v>
       </c>
       <c r="H88" t="n">
         <v>-1.53847619047619</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.6187142857142859</v>
+        <v>-0.6187142857142854</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.4324761904761892</v>
+        <v>-0.4324761904761886</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.8258095238095243</v>
+        <v>-0.8258095238095241</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.7083809523809536</v>
+        <v>-0.708380952380952</v>
       </c>
       <c r="M88" t="n">
-        <v>0.7958571428571436</v>
+        <v>0.795857142857144</v>
       </c>
       <c r="N88" t="n">
         <v>-0.34</v>
@@ -40443,40 +40443,40 @@
         <v>1996</v>
       </c>
       <c r="B89" t="n">
-        <v>0.02657142857142907</v>
+        <v>0.02657142857142755</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.007238095238094441</v>
+        <v>-0.007238095238094948</v>
       </c>
       <c r="D89" t="n">
         <v>-1.156285714285715</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2922857142857137</v>
+        <v>0.2922857142857144</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.4172380952380951</v>
+        <v>-0.4172380952380949</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.8423809523809529</v>
+        <v>-0.8423809523809531</v>
       </c>
       <c r="H89" t="n">
         <v>-1.109904761904762</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.9472857142857146</v>
+        <v>-0.9472857142857141</v>
       </c>
       <c r="J89" t="n">
         <v>1.138952380952382</v>
       </c>
       <c r="K89" t="n">
-        <v>0.5599047619047618</v>
+        <v>0.559904761904762</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.9512380952380963</v>
+        <v>-0.9512380952380948</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.5027142857142854</v>
+        <v>-0.502714285714285</v>
       </c>
       <c r="N89" t="n">
         <v>-0.33</v>
@@ -40487,40 +40487,40 @@
         <v>1997</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.486285714285714</v>
+        <v>-1.486285714285715</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.1486666666666661</v>
+        <v>-0.1486666666666667</v>
       </c>
       <c r="D90" t="n">
         <v>-1.169142857142857</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.6791428571428584</v>
+        <v>-0.6791428571428576</v>
       </c>
       <c r="F90" t="n">
-        <v>0.384190476190476</v>
+        <v>0.3841904761904762</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.2295238095238099</v>
+        <v>-0.2295238095238101</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.225619047619047</v>
+        <v>-0.2256190476190472</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.2772857142857144</v>
+        <v>-0.2772857142857139</v>
       </c>
       <c r="J90" t="n">
         <v>-1.259619047619046</v>
       </c>
       <c r="K90" t="n">
-        <v>0.447047619047619</v>
+        <v>0.4470476190476193</v>
       </c>
       <c r="L90" t="n">
-        <v>0.6216190476190473</v>
+        <v>0.6216190476190488</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.1598571428571428</v>
+        <v>-0.1598571428571423</v>
       </c>
       <c r="N90" t="n">
         <v>-0.35</v>
@@ -40531,40 +40531,40 @@
         <v>1998</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7565714285714294</v>
+        <v>0.756571428571428</v>
       </c>
       <c r="C91" t="n">
-        <v>2.465619047619048</v>
+        <v>2.465619047619047</v>
       </c>
       <c r="D91" t="n">
         <v>1.502285714285714</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7794285714285696</v>
+        <v>0.7794285714285704</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2413333333333341</v>
+        <v>0.2413333333333344</v>
       </c>
       <c r="G91" t="n">
-        <v>0.3161904761904759</v>
+        <v>0.3161904761904756</v>
       </c>
       <c r="H91" t="n">
         <v>1.39152380952381</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.3130000000000001</v>
+        <v>-0.3129999999999996</v>
       </c>
       <c r="J91" t="n">
-        <v>0.8446666666666685</v>
+        <v>0.8446666666666689</v>
       </c>
       <c r="K91" t="n">
-        <v>0.494190476190476</v>
+        <v>0.4941904761904762</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1259047619047617</v>
+        <v>0.1259047619047633</v>
       </c>
       <c r="M91" t="n">
-        <v>0.3444285714285716</v>
+        <v>0.3444285714285721</v>
       </c>
       <c r="N91" t="n">
         <v>0.75</v>
@@ -40575,7 +40575,7 @@
         <v>1999</v>
       </c>
       <c r="B92" t="n">
-        <v>1.503714285714287</v>
+        <v>1.503714285714285</v>
       </c>
       <c r="C92" t="n">
         <v>1.355619047619048</v>
@@ -40584,31 +40584,31 @@
         <v>1.620857142857142</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2694285714285703</v>
+        <v>0.2694285714285711</v>
       </c>
       <c r="F92" t="n">
         <v>1.488476190476191</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5919047619047613</v>
+        <v>0.591904761904761</v>
       </c>
       <c r="H92" t="n">
-        <v>0.310095238095239</v>
+        <v>0.3100952380952387</v>
       </c>
       <c r="I92" t="n">
-        <v>0.07271428571428551</v>
+        <v>0.07271428571428602</v>
       </c>
       <c r="J92" t="n">
-        <v>0.7303809523809532</v>
+        <v>0.7303809523809538</v>
       </c>
       <c r="K92" t="n">
         <v>1.108476190476191</v>
       </c>
       <c r="L92" t="n">
-        <v>0.2687619047619044</v>
+        <v>0.2687619047619059</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.7555714285714278</v>
+        <v>-0.7555714285714272</v>
       </c>
       <c r="N92" t="n">
         <v>0.71</v>
@@ -40619,40 +40619,40 @@
         <v>2000</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.106285714285715</v>
+        <v>-1.106285714285716</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.2400952380952382</v>
+        <v>-0.2400952380952387</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.4605714285714286</v>
+        <v>-0.4605714285714291</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1737142857142839</v>
+        <v>0.1737142857142846</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4641904761904763</v>
+        <v>0.4641904761904766</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4819047619047616</v>
+        <v>0.4819047619047613</v>
       </c>
       <c r="H93" t="n">
         <v>1.257238095238096</v>
       </c>
       <c r="I93" t="n">
-        <v>0.005571428571428275</v>
+        <v>0.005571428571428783</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.008190476190475035</v>
+        <v>-0.008190476190474527</v>
       </c>
       <c r="K93" t="n">
-        <v>0.341333333333333</v>
+        <v>0.3413333333333333</v>
       </c>
       <c r="L93" t="n">
-        <v>-1.35552380952381</v>
+        <v>-1.355523809523808</v>
       </c>
       <c r="M93" t="n">
-        <v>1.177285714285714</v>
+        <v>1.177285714285715</v>
       </c>
       <c r="N93" t="n">
         <v>0.06</v>
@@ -40663,40 +40663,40 @@
         <v>2001</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.9348571428571419</v>
+        <v>-0.9348571428571434</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6027619047619049</v>
+        <v>0.6027619047619045</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3394285714285716</v>
+        <v>0.3394285714285711</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7151428571428562</v>
+        <v>0.715142857142857</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1500952380952376</v>
+        <v>-0.1500952380952373</v>
       </c>
       <c r="G94" t="n">
-        <v>0.3819047619047615</v>
+        <v>0.3819047619047612</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.7999047619047615</v>
+        <v>-0.7999047619047618</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5912857142857142</v>
+        <v>0.5912857142857147</v>
       </c>
       <c r="J94" t="n">
-        <v>0.9489523809523822</v>
+        <v>0.9489523809523828</v>
       </c>
       <c r="K94" t="n">
-        <v>0.8699047619047615</v>
+        <v>0.8699047619047617</v>
       </c>
       <c r="L94" t="n">
-        <v>0.001619047619047314</v>
+        <v>0.001619047619048836</v>
       </c>
       <c r="M94" t="n">
-        <v>0.1772857142857142</v>
+        <v>0.1772857142857147</v>
       </c>
       <c r="N94" t="n">
         <v>0.23</v>
@@ -40707,40 +40707,40 @@
         <v>2002</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.4634285714285709</v>
+        <v>-0.4634285714285724</v>
       </c>
       <c r="C95" t="n">
         <v>-1.354380952380952</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4679999999999995</v>
+        <v>0.467999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.4562857142857154</v>
+        <v>-0.4562857142857147</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2499047619047625</v>
+        <v>0.2499047619047628</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9819047619047614</v>
+        <v>0.9819047619047611</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.1427619047619041</v>
+        <v>-0.1427619047619044</v>
       </c>
       <c r="I95" t="n">
-        <v>0.3769999999999997</v>
+        <v>0.3770000000000002</v>
       </c>
       <c r="J95" t="n">
-        <v>0.9203809523809531</v>
+        <v>0.9203809523809535</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.6586666666666664</v>
+        <v>-0.6586666666666662</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.8840952380952386</v>
+        <v>-0.884095238095237</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.0798571428571425</v>
+        <v>-0.07985714285714199</v>
       </c>
       <c r="N95" t="n">
         <v>-0.09</v>
@@ -40751,40 +40751,40 @@
         <v>2003</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.349142857142856</v>
+        <v>-0.3491428571428575</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.4972380952380954</v>
+        <v>-0.4972380952380959</v>
       </c>
       <c r="D96" t="n">
-        <v>0.910857142857142</v>
+        <v>0.9108571428571415</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.6548571428571446</v>
+        <v>-0.6548571428571438</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6499047619047627</v>
+        <v>0.6499047619047629</v>
       </c>
       <c r="G96" t="n">
         <v>1.653333333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.4284761904761901</v>
+        <v>-0.4284761904761903</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.008714285714285706</v>
+        <v>-0.008714285714285199</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.2081904761904753</v>
+        <v>-0.2081904761904748</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.4443809523809527</v>
+        <v>-0.4443809523809524</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.3269523809523811</v>
+        <v>-0.3269523809523796</v>
       </c>
       <c r="M96" t="n">
-        <v>0.2629999999999996</v>
+        <v>0.2630000000000002</v>
       </c>
       <c r="N96" t="n">
         <v>0.05</v>
@@ -40795,37 +40795,37 @@
         <v>2004</v>
       </c>
       <c r="B97" t="n">
-        <v>1.036571428571429</v>
+        <v>1.036571428571428</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.954380952380952</v>
+        <v>-1.954380952380953</v>
       </c>
       <c r="D97" t="n">
-        <v>-1.303428571428571</v>
+        <v>-1.303428571428572</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.384857142857145</v>
+        <v>-1.384857142857144</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2929523809523804</v>
+        <v>-0.2929523809523801</v>
       </c>
       <c r="G97" t="n">
-        <v>0.7819047619047613</v>
+        <v>0.7819047619047611</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.6284761904761902</v>
+        <v>-0.6284761904761904</v>
       </c>
       <c r="I97" t="n">
-        <v>-1.608714285714286</v>
+        <v>-1.608714285714285</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.5367619047619038</v>
+        <v>-0.5367619047619032</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.5443809523809525</v>
+        <v>-0.5443809523809523</v>
       </c>
       <c r="L97" t="n">
-        <v>0.6873333333333324</v>
+        <v>0.6873333333333339</v>
       </c>
       <c r="M97" t="n">
         <v>-2.494142857142857</v>
@@ -40839,40 +40839,40 @@
         <v>2005</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.5205714285714278</v>
+        <v>-0.5205714285714294</v>
       </c>
       <c r="C98" t="n">
-        <v>1.088476190476191</v>
+        <v>1.08847619047619</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.03200000000000053</v>
+        <v>-0.03200000000000104</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.269142857142859</v>
+        <v>-0.2691428571428582</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07847619047619148</v>
+        <v>0.07847619047619173</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.6038095238095244</v>
+        <v>-0.6038095238095246</v>
       </c>
       <c r="H98" t="n">
-        <v>0.7143809523809532</v>
+        <v>0.714380952380953</v>
       </c>
       <c r="I98" t="n">
-        <v>1.191285714285714</v>
+        <v>1.191285714285715</v>
       </c>
       <c r="J98" t="n">
-        <v>0.6018095238095257</v>
+        <v>0.6018095238095261</v>
       </c>
       <c r="K98" t="n">
-        <v>0.008476190476190431</v>
+        <v>0.008476190476190684</v>
       </c>
       <c r="L98" t="n">
-        <v>0.4116190476190467</v>
+        <v>0.4116190476190482</v>
       </c>
       <c r="M98" t="n">
-        <v>1.573</v>
+        <v>1.573000000000001</v>
       </c>
       <c r="N98" t="n">
         <v>0.35</v>
@@ -40883,40 +40883,40 @@
         <v>2006</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2751428571428579</v>
+        <v>0.2751428571428564</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.05866666666666579</v>
+        <v>-0.0586666666666663</v>
       </c>
       <c r="D99" t="n">
         <v>-1.536285714285714</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8679999999999986</v>
+        <v>0.8679999999999993</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.6400952380952371</v>
+        <v>-0.6400952380952367</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.208095238095238</v>
+        <v>-1.208095238095239</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1100952380952392</v>
+        <v>0.1100952380952389</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.2558571428571432</v>
+        <v>-0.2558571428571427</v>
       </c>
       <c r="J99" t="n">
         <v>1.101809523809525</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.4058095238095242</v>
+        <v>-0.4058095238095239</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.3169523809523823</v>
+        <v>-0.3169523809523808</v>
       </c>
       <c r="M99" t="n">
-        <v>-2.312714285714286</v>
+        <v>-2.312714285714285</v>
       </c>
       <c r="N99" t="n">
         <v>-0.36</v>
@@ -40927,40 +40927,40 @@
         <v>2007</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.9391428571428558</v>
+        <v>-0.9391428571428574</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3015238095238085</v>
+        <v>-0.301523809523809</v>
       </c>
       <c r="D100" t="n">
         <v>1.220857142857142</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.5177142857142876</v>
+        <v>-0.5177142857142868</v>
       </c>
       <c r="F100" t="n">
-        <v>1.517047619047619</v>
+        <v>1.51704761904762</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.7795238095238101</v>
+        <v>-0.7795238095238103</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.3756190476190469</v>
+        <v>-0.3756190476190471</v>
       </c>
       <c r="I100" t="n">
-        <v>0.07271428571428576</v>
+        <v>0.07271428571428627</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04466666666666771</v>
+        <v>0.04466666666666822</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.3772380952380949</v>
+        <v>-0.3772380952380947</v>
       </c>
       <c r="L100" t="n">
-        <v>0.125904761904761</v>
+        <v>0.1259047619047625</v>
       </c>
       <c r="M100" t="n">
-        <v>0.2015714285714288</v>
+        <v>0.2015714285714293</v>
       </c>
       <c r="N100" t="n">
         <v>-0.01</v>
@@ -40971,40 +40971,40 @@
         <v>2008</v>
       </c>
       <c r="B101" t="n">
-        <v>1.418</v>
+        <v>1.417999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2699047619047619</v>
+        <v>0.2699047619047614</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6779999999999998</v>
+        <v>0.6779999999999993</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3251428571428551</v>
+        <v>0.3251428571428558</v>
       </c>
       <c r="F101" t="n">
         <v>-1.268666666666666</v>
       </c>
       <c r="G101" t="n">
-        <v>0.406190476190476</v>
+        <v>0.4061904761904757</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.07561904761904716</v>
+        <v>-0.07561904761904741</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.898714285714286</v>
+        <v>-0.8987142857142855</v>
       </c>
       <c r="J101" t="n">
-        <v>0.4018095238095251</v>
+        <v>0.4018095238095256</v>
       </c>
       <c r="K101" t="n">
-        <v>0.165619047619047</v>
+        <v>0.1656190476190473</v>
       </c>
       <c r="L101" t="n">
-        <v>0.4830476190476186</v>
+        <v>0.4830476190476202</v>
       </c>
       <c r="M101" t="n">
-        <v>0.01585714285714346</v>
+        <v>0.01585714285714396</v>
       </c>
       <c r="N101" t="n">
         <v>0.16</v>
@@ -41015,16 +41015,16 @@
         <v>2009</v>
       </c>
       <c r="B102" t="n">
-        <v>1.003714285714287</v>
+        <v>1.003714285714285</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.815809523809523</v>
+        <v>-0.8158095238095235</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.522</v>
+        <v>-0.5220000000000005</v>
       </c>
       <c r="E102" t="n">
-        <v>0.09657142857142732</v>
+        <v>0.09657142857142809</v>
       </c>
       <c r="F102" t="n">
         <v>-2.38295238095238</v>
@@ -41033,22 +41033,22 @@
         <v>-1.47952380952381</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.8741904761904754</v>
+        <v>-0.8741904761904757</v>
       </c>
       <c r="I102" t="n">
-        <v>1.144142857142857</v>
+        <v>1.144142857142858</v>
       </c>
       <c r="J102" t="n">
-        <v>0.3303809523809534</v>
+        <v>0.3303809523809539</v>
       </c>
       <c r="K102" t="n">
         <v>-1.720095238095238</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07447619047618989</v>
+        <v>0.0744761904761914</v>
       </c>
       <c r="M102" t="n">
-        <v>-0.4784285714285715</v>
+        <v>-0.4784285714285709</v>
       </c>
       <c r="N102" t="n">
         <v>-0.47</v>
@@ -41059,40 +41059,40 @@
         <v>2010</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.8334285714285709</v>
+        <v>-0.8334285714285724</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4327619047619053</v>
+        <v>0.4327619047619048</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7265714285714279</v>
+        <v>0.7265714285714273</v>
       </c>
       <c r="E103" t="n">
-        <v>1.016571428571426</v>
+        <v>1.016571428571427</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.2486666666666661</v>
+        <v>-0.2486666666666658</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.1166666666666671</v>
+        <v>-0.1166666666666674</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.2127619047619039</v>
+        <v>-0.2127619047619042</v>
       </c>
       <c r="I103" t="n">
-        <v>0.207</v>
+        <v>0.2070000000000005</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1932380952380964</v>
+        <v>0.1932380952380969</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.242952380952381</v>
+        <v>-0.2429523809523807</v>
       </c>
       <c r="L103" t="n">
-        <v>1.274476190476191</v>
+        <v>1.274476190476192</v>
       </c>
       <c r="M103" t="n">
-        <v>1.321571428571429</v>
+        <v>1.32157142857143</v>
       </c>
       <c r="N103" t="n">
         <v>0.29</v>
@@ -41103,40 +41103,40 @@
         <v>2011</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.03342857142857066</v>
+        <v>-0.03342857142857219</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2184761904761905</v>
+        <v>0.21847619047619</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1408571428571419</v>
+        <v>0.1408571428571414</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.6834285714285725</v>
+        <v>-0.6834285714285718</v>
       </c>
       <c r="F104" t="n">
-        <v>1.179904761904762</v>
+        <v>1.179904761904763</v>
       </c>
       <c r="G104" t="n">
-        <v>0.7547619047619047</v>
+        <v>0.7547619047619045</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.0827619047619044</v>
+        <v>-0.08276190476190466</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.4215714285714292</v>
+        <v>-0.4215714285714287</v>
       </c>
       <c r="J104" t="n">
-        <v>-0.4781904761904752</v>
+        <v>-0.4781904761904747</v>
       </c>
       <c r="K104" t="n">
-        <v>-0.08580952380952336</v>
+        <v>-0.08580952380952311</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.2969523809523817</v>
+        <v>-0.2969523809523802</v>
       </c>
       <c r="M104" t="n">
-        <v>-0.3498571428571426</v>
+        <v>-0.3498571428571421</v>
       </c>
       <c r="N104" t="n">
         <v>-0.01</v>
@@ -41147,37 +41147,37 @@
         <v>2012</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.9048571428571418</v>
+        <v>-0.9048571428571434</v>
       </c>
       <c r="C105" t="n">
         <v>-1.595809523809524</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.330571428571429</v>
+        <v>-1.33057142857143</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6165714285714269</v>
+        <v>0.6165714285714277</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.6343809523809514</v>
+        <v>-0.6343809523809512</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.716666666666667</v>
+        <v>-0.7166666666666673</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5458095238095242</v>
+        <v>0.545809523809524</v>
       </c>
       <c r="I105" t="n">
-        <v>0.4927142857142854</v>
+        <v>0.4927142857142859</v>
       </c>
       <c r="J105" t="n">
-        <v>0.3218095238095255</v>
+        <v>0.321809523809526</v>
       </c>
       <c r="K105" t="n">
-        <v>-0.3286666666666664</v>
+        <v>-0.3286666666666661</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.7683809523809535</v>
+        <v>-0.7683809523809521</v>
       </c>
       <c r="M105" t="n">
         <v>1.050142857142857</v>
@@ -41191,22 +41191,22 @@
         <v>2013</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6665714285714291</v>
+        <v>0.6665714285714276</v>
       </c>
       <c r="C106" t="n">
-        <v>0.08990476190476215</v>
+        <v>0.08990476190476164</v>
       </c>
       <c r="D106" t="n">
-        <v>1.126571428571429</v>
+        <v>1.126571428571428</v>
       </c>
       <c r="E106" t="n">
-        <v>0.459428571428569</v>
+        <v>0.4594285714285698</v>
       </c>
       <c r="F106" t="n">
-        <v>0.008476190476191192</v>
+        <v>0.008476190476191445</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.07380952380952419</v>
+        <v>-0.07380952380952444</v>
       </c>
       <c r="H106" t="n">
         <v>1.258666666666667</v>
@@ -41215,16 +41215,16 @@
         <v>1.249857142857143</v>
       </c>
       <c r="J106" t="n">
-        <v>0.2646666666666683</v>
+        <v>0.2646666666666689</v>
       </c>
       <c r="K106" t="n">
-        <v>0.714190476190476</v>
+        <v>0.7141904761904764</v>
       </c>
       <c r="L106" t="n">
-        <v>1.331619047619047</v>
+        <v>1.331619047619048</v>
       </c>
       <c r="M106" t="n">
-        <v>0.7501428571428573</v>
+        <v>0.7501428571428578</v>
       </c>
       <c r="N106" t="n">
         <v>0.65</v>
@@ -41235,40 +41235,40 @@
         <v>2014</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.061999999999999</v>
+        <v>-1.062000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.1672380952380951</v>
+        <v>-0.1672380952380956</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.4877142857142864</v>
+        <v>-0.4877142857142869</v>
       </c>
       <c r="E107" t="n">
-        <v>0.302285714285713</v>
+        <v>0.3022857142857137</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4227619047619053</v>
+        <v>0.4227619047619055</v>
       </c>
       <c r="G107" t="n">
         <v>1.469047619047619</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.05419047619047542</v>
+        <v>-0.05419047619047568</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.2072857142857146</v>
+        <v>-0.2072857142857141</v>
       </c>
       <c r="J107" t="n">
-        <v>0.4646666666666676</v>
+        <v>0.4646666666666682</v>
       </c>
       <c r="K107" t="n">
-        <v>0.3713333333333332</v>
+        <v>0.3713333333333334</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.2255238095238106</v>
+        <v>-0.225523809523809</v>
       </c>
       <c r="M107" t="n">
-        <v>0.09299999999999997</v>
+        <v>0.09300000000000049</v>
       </c>
       <c r="N107" t="n">
         <v>0.08</v>
@@ -41279,40 +41279,40 @@
         <v>2015</v>
       </c>
       <c r="B108" t="n">
-        <v>1.423714285714286</v>
+        <v>1.423714285714285</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.1243809523809516</v>
+        <v>-0.1243809523809521</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8551428571428568</v>
+        <v>0.8551428571428562</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3165714285714274</v>
+        <v>0.3165714285714282</v>
       </c>
       <c r="F108" t="n">
-        <v>0.2370476190476197</v>
+        <v>0.23704761904762</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2404761904761903</v>
+        <v>0.24047619047619</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.3256190476190466</v>
+        <v>-0.3256190476190469</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.5215714285714282</v>
+        <v>-0.5215714285714278</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.8781904761904747</v>
+        <v>-0.8781904761904743</v>
       </c>
       <c r="K108" t="n">
-        <v>0.6999047619047616</v>
+        <v>0.6999047619047618</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07447619047618913</v>
+        <v>0.07447619047619065</v>
       </c>
       <c r="M108" t="n">
-        <v>0.1358571428571429</v>
+        <v>0.1358571428571434</v>
       </c>
       <c r="N108" t="n">
         <v>0.18</v>
@@ -41323,10 +41323,10 @@
         <v>2016</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.07628571428571414</v>
+        <v>-0.07628571428571565</v>
       </c>
       <c r="C109" t="n">
-        <v>2.389904761904763</v>
+        <v>2.389904761904762</v>
       </c>
       <c r="D109" t="n">
         <v>1.240857142857142</v>
@@ -41338,25 +41338,25 @@
         <v>1.594190476190477</v>
       </c>
       <c r="G109" t="n">
-        <v>1.697619047619048</v>
+        <v>1.697619047619047</v>
       </c>
       <c r="H109" t="n">
-        <v>0.8458095238095247</v>
+        <v>0.8458095238095245</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.3501428571428572</v>
+        <v>-0.3501428571428567</v>
       </c>
       <c r="J109" t="n">
-        <v>-0.1639047619047605</v>
+        <v>-0.16390476190476</v>
       </c>
       <c r="K109" t="n">
-        <v>0.3284761904761894</v>
+        <v>0.3284761904761897</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1030476190476178</v>
+        <v>0.1030476190476194</v>
       </c>
       <c r="M109" t="n">
-        <v>-0.2212857142857147</v>
+        <v>-0.2212857142857142</v>
       </c>
       <c r="N109" t="n">
         <v>0.73</v>
@@ -41367,37 +41367,37 @@
         <v>2017</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.8334285714285704</v>
+        <v>-0.8334285714285719</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.08152380952380968</v>
+        <v>-0.08152380952381019</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.2305714285714282</v>
+        <v>-0.2305714285714287</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1594285714285704</v>
+        <v>0.1594285714285711</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.5343809523809517</v>
+        <v>-0.5343809523809515</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1833333333333331</v>
+        <v>0.1833333333333328</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.3413333333333328</v>
+        <v>-0.341333333333333</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9784285714285714</v>
+        <v>0.978428571428572</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2218095238095254</v>
+        <v>0.2218095238095259</v>
       </c>
       <c r="K110" t="n">
-        <v>0.7713333333333338</v>
+        <v>0.771333333333334</v>
       </c>
       <c r="L110" t="n">
-        <v>1.217333333333332</v>
+        <v>1.217333333333334</v>
       </c>
       <c r="M110" t="n">
         <v>2.878714285714286</v>
@@ -41411,40 +41411,40 @@
         <v>2018</v>
       </c>
       <c r="B111" t="n">
-        <v>2.652285714285715</v>
+        <v>2.652285714285714</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2899047619047624</v>
+        <v>0.2899047619047619</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8694285714285712</v>
+        <v>0.8694285714285707</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.04057142857143044</v>
+        <v>-0.04057142857142969</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.1343809523809519</v>
+        <v>-0.1343809523809517</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.4166666666666669</v>
+        <v>-0.4166666666666671</v>
       </c>
       <c r="H111" t="n">
-        <v>1.060095238095239</v>
+        <v>1.060095238095238</v>
       </c>
       <c r="I111" t="n">
-        <v>0.7212857142857142</v>
+        <v>0.7212857142857148</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02180952380952483</v>
+        <v>0.02180952380952534</v>
       </c>
       <c r="K111" t="n">
-        <v>0.3141904761904762</v>
+        <v>0.3141904761904765</v>
       </c>
       <c r="L111" t="n">
-        <v>0.4316190476190468</v>
+        <v>0.4316190476190483</v>
       </c>
       <c r="M111" t="n">
-        <v>0.7644285714285713</v>
+        <v>0.7644285714285718</v>
       </c>
       <c r="N111" t="n">
         <v>0.54</v>
@@ -41455,40 +41455,40 @@
         <v>2019</v>
       </c>
       <c r="B112" t="n">
-        <v>1.752285714285714</v>
+        <v>1.752285714285713</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9041904761904763</v>
+        <v>0.9041904761904759</v>
       </c>
       <c r="D112" t="n">
         <v>1.712285714285714</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.3248571428571445</v>
+        <v>-0.3248571428571437</v>
       </c>
       <c r="F112" t="n">
         <v>1.522761904761905</v>
       </c>
       <c r="G112" t="n">
-        <v>0.24047619047619</v>
+        <v>0.2404761904761898</v>
       </c>
       <c r="H112" t="n">
-        <v>1.245809523809525</v>
+        <v>1.245809523809524</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0927142857142856</v>
+        <v>0.0927142857142861</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.02104761904761787</v>
+        <v>-0.02104761904761736</v>
       </c>
       <c r="K112" t="n">
-        <v>-0.4572380952380953</v>
+        <v>-0.457238095238095</v>
       </c>
       <c r="L112" t="n">
-        <v>1.560190476190475</v>
+        <v>1.560190476190477</v>
       </c>
       <c r="M112" t="n">
-        <v>0.1644285714285724</v>
+        <v>0.1644285714285729</v>
       </c>
       <c r="N112" t="n">
         <v>0.7</v>
@@ -41499,40 +41499,40 @@
         <v>2020</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.1619999999999995</v>
+        <v>-0.1620000000000011</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9613333333333328</v>
+        <v>0.9613333333333323</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.3734285714285711</v>
+        <v>-0.3734285714285716</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3737142857142831</v>
+        <v>0.3737142857142839</v>
       </c>
       <c r="F113" t="n">
-        <v>0.3513333333333328</v>
+        <v>0.3513333333333331</v>
       </c>
       <c r="G113" t="n">
         <v>1.054761904761905</v>
       </c>
       <c r="H113" t="n">
-        <v>0.5586666666666675</v>
+        <v>0.5586666666666673</v>
       </c>
       <c r="I113" t="n">
         <v>1.178428571428572</v>
       </c>
       <c r="J113" t="n">
-        <v>0.6932380952380964</v>
+        <v>0.6932380952380969</v>
       </c>
       <c r="K113" t="n">
         <v>1.028476190476191</v>
       </c>
       <c r="L113" t="n">
-        <v>0.6316190476190461</v>
+        <v>0.6316190476190476</v>
       </c>
       <c r="M113" t="n">
-        <v>-0.03557142857142789</v>
+        <v>-0.03557142857142738</v>
       </c>
       <c r="N113" t="n">
         <v>0.52</v>
@@ -41543,37 +41543,37 @@
         <v>2021</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4094285714285719</v>
+        <v>0.4094285714285704</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3470476190476189</v>
+        <v>0.3470476190476184</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4265714285714287</v>
+        <v>0.4265714285714282</v>
       </c>
       <c r="E114" t="n">
-        <v>1.159428571428569</v>
+        <v>1.15942857142857</v>
       </c>
       <c r="F114" t="n">
-        <v>0.665619047619048</v>
+        <v>0.6656190476190483</v>
       </c>
       <c r="G114" t="n">
         <v>1.397619047619048</v>
       </c>
       <c r="H114" t="n">
-        <v>0.9586666666666677</v>
+        <v>0.9586666666666674</v>
       </c>
       <c r="I114" t="n">
-        <v>0.5641428571428574</v>
+        <v>0.5641428571428578</v>
       </c>
       <c r="J114" t="n">
-        <v>0.3075238095238103</v>
+        <v>0.3075238095238108</v>
       </c>
       <c r="K114" t="n">
-        <v>0.6713333333333333</v>
+        <v>0.6713333333333337</v>
       </c>
       <c r="L114" t="n">
-        <v>1.445904761904761</v>
+        <v>1.445904761904762</v>
       </c>
       <c r="M114" t="n">
         <v>1.150142857142858</v>
@@ -41587,37 +41587,37 @@
         <v>2022</v>
       </c>
       <c r="B115" t="n">
-        <v>1.209428571428572</v>
+        <v>1.20942857142857</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.252952380952381</v>
+        <v>-0.2529523809523815</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9979999999999996</v>
+        <v>0.9979999999999991</v>
       </c>
       <c r="E115" t="n">
-        <v>1.545142857142855</v>
+        <v>1.545142857142856</v>
       </c>
       <c r="F115" t="n">
         <v>1.694190476190477</v>
       </c>
       <c r="G115" t="n">
-        <v>1.054761904761905</v>
+        <v>1.054761904761904</v>
       </c>
       <c r="H115" t="n">
-        <v>0.6015238095238108</v>
+        <v>0.6015238095238106</v>
       </c>
       <c r="I115" t="n">
-        <v>1.206999999999999</v>
+        <v>1.207</v>
       </c>
       <c r="J115" t="n">
-        <v>0.2789523809523818</v>
+        <v>0.2789523809523823</v>
       </c>
       <c r="K115" t="n">
-        <v>0.1856190476190471</v>
+        <v>0.1856190476190474</v>
       </c>
       <c r="L115" t="n">
-        <v>1.703047619047618</v>
+        <v>1.703047619047619</v>
       </c>
       <c r="M115" t="n">
         <v>1.078714285714286</v>
@@ -41631,40 +41631,40 @@
         <v>2023</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9380000000000004</v>
+        <v>0.9379999999999988</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8756190476190474</v>
+        <v>0.8756190476190469</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1551428571428574</v>
+        <v>0.1551428571428569</v>
       </c>
       <c r="E116" t="n">
-        <v>0.7594285714285688</v>
+        <v>0.7594285714285695</v>
       </c>
       <c r="F116" t="n">
         <v>1.537047619047619</v>
       </c>
       <c r="G116" t="n">
-        <v>1.383333333333334</v>
+        <v>1.383333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>1.072952380952382</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.1930000000000004</v>
+        <v>-0.1929999999999999</v>
       </c>
       <c r="J116" t="n">
-        <v>1.193238095238096</v>
+        <v>1.193238095238097</v>
       </c>
       <c r="K116" t="n">
-        <v>0.7713333333333333</v>
+        <v>0.7713333333333335</v>
       </c>
       <c r="L116" t="n">
-        <v>0.3601904761904743</v>
+        <v>0.3601904761904758</v>
       </c>
       <c r="M116" t="n">
-        <v>0.8358571428571437</v>
+        <v>0.8358571428571443</v>
       </c>
       <c r="N116" t="n">
         <v>0.8100000000000001</v>
@@ -41675,34 +41675,34 @@
         <v>2024</v>
       </c>
       <c r="B117" t="n">
-        <v>1.595142857142858</v>
+        <v>1.595142857142857</v>
       </c>
       <c r="C117" t="n">
-        <v>0.261333333333334</v>
+        <v>0.2613333333333335</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.8162857142857136</v>
+        <v>-0.8162857142857141</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5594285714285695</v>
+        <v>0.5594285714285702</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.8915238095238089</v>
+        <v>-0.8915238095238086</v>
       </c>
       <c r="G117" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.9833333333333331</v>
       </c>
       <c r="H117" t="n">
-        <v>0.8015238095238103</v>
+        <v>0.8015238095238101</v>
       </c>
       <c r="I117" t="n">
-        <v>1.021285714285714</v>
+        <v>1.021285714285715</v>
       </c>
       <c r="J117" t="n">
-        <v>0.8503809523809538</v>
+        <v>0.8503809523809542</v>
       </c>
       <c r="K117" t="n">
-        <v>0.714190476190476</v>
+        <v>0.7141904761904764</v>
       </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
@@ -41816,7 +41816,7 @@
         <v>-0.27</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>-1.54</v>

--- a/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_rounded_all_sites_all.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5576,10 +5576,36 @@
       <c r="K117" t="n">
         <v>1.23</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.48</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.55</v>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -5593,7 +5619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10682,10 +10708,36 @@
       <c r="K117" t="n">
         <v>0.9</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.82</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.86</v>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-2.64</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-2.64</v>
       </c>
     </row>
   </sheetData>
@@ -10699,7 +10751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15868,10 +15920,36 @@
       <c r="K117" t="n">
         <v>0.95</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.67</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.42</v>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.26</v>
       </c>
     </row>
   </sheetData>
@@ -15885,7 +15963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21054,10 +21132,36 @@
       <c r="K117" t="n">
         <v>-0.2</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2.1</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.38</v>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.52</v>
       </c>
     </row>
   </sheetData>
@@ -21071,7 +21175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26146,11 +26250,31 @@
       <c r="K117" t="n">
         <v>0.93</v>
       </c>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.45</v>
+      </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.25</v>
-      </c>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26163,7 +26287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31332,10 +31456,36 @@
       <c r="K117" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.54</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-2.75</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-2.75</v>
       </c>
     </row>
   </sheetData>
@@ -31349,7 +31499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36518,10 +36668,36 @@
       <c r="K117" t="n">
         <v>0.49</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.34</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.3</v>
       </c>
     </row>
   </sheetData>
@@ -36535,7 +36711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41704,10 +41880,36 @@
       <c r="K117" t="n">
         <v>0.7141904761904764</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.745904761904762</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.492388888888889</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.51</v>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.572333333333335</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.57</v>
       </c>
     </row>
   </sheetData>
@@ -41721,7 +41923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46890,10 +47092,36 @@
       <c r="K117" t="n">
         <v>0.71</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.49</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.51</v>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.57</v>
       </c>
     </row>
   </sheetData>
